--- a/server/mqtt_Influx/obd2_data_report.xlsx
+++ b/server/mqtt_Influx/obd2_data_report.xlsx
@@ -532,7 +532,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.097641Z</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -573,7 +573,7 @@
         <v>193.99</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>45410.72309671699</v>
+        <v>45413.1045612222</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -587,16 +587,16 @@
         <v>5352.204974093264</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10459603751</v>
       </c>
       <c r="R2" t="n">
-        <v>22.211097</v>
+        <v>3.008043</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.117098Z</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -637,7 +637,7 @@
         <v>193.99</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>45410.72309804802</v>
+        <v>45413.10456239125</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -651,16 +651,16 @@
         <v>5350.102442017159</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10459626271</v>
       </c>
       <c r="R3" t="n">
-        <v>22.096096</v>
+        <v>2.926494</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.167302Z</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -701,7 +701,7 @@
         <v>13.82</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>45410.72309848778</v>
+        <v>45413.10456281224</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -715,16 +715,16 @@
         <v>5323.690447566904</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10459684378</v>
       </c>
       <c r="R4" t="n">
-        <v>22.058101</v>
+        <v>2.940325</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.741492Z</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -765,7 +765,7 @@
         <v>69.51000000000001</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>45410.72310252715</v>
+        <v>45413.1045664186</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -779,16 +779,16 @@
         <v>5842.444187778133</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460348949</v>
       </c>
       <c r="R5" t="n">
-        <v>21.709099</v>
+        <v>3.202925</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.750489Z</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -829,7 +829,7 @@
         <v>69.51000000000001</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>45410.7231025503</v>
+        <v>45413.10456645331</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -843,16 +843,16 @@
         <v>5849.578471350084</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460359362</v>
       </c>
       <c r="R6" t="n">
-        <v>21.707099</v>
+        <v>3.208923</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.757727Z</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -893,7 +893,7 @@
         <v>69.51000000000001</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>45410.72310257345</v>
+        <v>45413.10456648801</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -907,16 +907,16 @@
         <v>5856.542931430945</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.1046036774</v>
       </c>
       <c r="R7" t="n">
-        <v>21.705099</v>
+        <v>3.213163</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.765272Z</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -957,7 +957,7 @@
         <v>69.51000000000001</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>45410.72310260822</v>
+        <v>45413.10456651117</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -971,16 +971,16 @@
         <v>5863.571141599899</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460376472</v>
       </c>
       <c r="R8" t="n">
-        <v>21.702095</v>
+        <v>3.218707</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.772683Z</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1021,7 +1021,7 @@
         <v>69.51000000000001</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>45410.72310264291</v>
+        <v>45413.10456654589</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1035,16 +1035,16 @@
         <v>5870.401090937256</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.1046038505</v>
       </c>
       <c r="R9" t="n">
-        <v>21.699098</v>
+        <v>3.223118</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.800911Z</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1085,7 +1085,7 @@
         <v>69.51000000000001</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>45410.72310267761</v>
+        <v>45413.10456656902</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,16 +1099,16 @@
         <v>5877.260988621883</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460417721</v>
       </c>
       <c r="R10" t="n">
-        <v>21.696099</v>
+        <v>3.249348</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.808870Z</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1149,7 +1149,7 @@
         <v>69.51000000000001</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>45410.72310270079</v>
+        <v>45413.10456659216</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1163,16 +1163,16 @@
         <v>5884.182448708344</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460426933</v>
       </c>
       <c r="R11" t="n">
-        <v>21.694097</v>
+        <v>3.255307</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.816322Z</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1213,7 +1213,7 @@
         <v>69.51000000000001</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>45410.72310272399</v>
+        <v>45413.1045666153</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1227,16 +1227,16 @@
         <v>5890.982333400937</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460435558</v>
       </c>
       <c r="R12" t="n">
-        <v>21.692092</v>
+        <v>3.26076</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.823742Z</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1277,7 +1277,7 @@
         <v>69.51000000000001</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>45410.72310274707</v>
+        <v>45413.10456663845</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1291,16 +1291,16 @@
         <v>5897.88248437451</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460444146</v>
       </c>
       <c r="R13" t="n">
-        <v>21.690098</v>
+        <v>3.26618</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.831149Z</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1341,7 +1341,7 @@
         <v>69.51000000000001</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>45410.72310281245</v>
+        <v>45413.1045666616</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1355,16 +1355,16 @@
         <v>5904.687488363173</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460452719</v>
       </c>
       <c r="R14" t="n">
-        <v>21.684449</v>
+        <v>3.271587</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.173253Z</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1405,7 +1405,7 @@
         <v>13.82</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>45410.7230985225</v>
+        <v>45413.10456285852</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1419,16 +1419,16 @@
         <v>5332.081316088133</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10459691265</v>
       </c>
       <c r="R15" t="n">
-        <v>22.055101</v>
+        <v>2.942277</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.838280Z</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1469,7 +1469,7 @@
         <v>69.67</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>45410.7231028744</v>
+        <v>45413.1045667079</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1483,16 +1483,16 @@
         <v>5911.630240410736</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460460973</v>
       </c>
       <c r="R16" t="n">
-        <v>21.679097</v>
+        <v>3.274717</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.846013Z</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1533,7 +1533,7 @@
         <v>69.67</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>45410.72310289752</v>
+        <v>45413.10456673109</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1547,16 +1547,16 @@
         <v>5918.671979412888</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460469923</v>
       </c>
       <c r="R17" t="n">
-        <v>21.677099</v>
+        <v>3.280447</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.853413Z</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1597,7 +1597,7 @@
         <v>69.67</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>45410.7231029207</v>
+        <v>45413.10456675419</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1611,16 +1611,16 @@
         <v>5925.576664929368</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460478487</v>
       </c>
       <c r="R18" t="n">
-        <v>21.675096</v>
+        <v>3.285851</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.860890Z</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1661,7 +1661,7 @@
         <v>69.7</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>45410.72310294384</v>
+        <v>45413.10456677737</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1675,16 +1675,16 @@
         <v>5932.678401316193</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460487141</v>
       </c>
       <c r="R19" t="n">
-        <v>21.673097</v>
+        <v>3.291325</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.868109Z</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1725,7 +1725,7 @@
         <v>69.94</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>45410.72310297855</v>
+        <v>45413.10456681206</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1739,16 +1739,16 @@
         <v>5939.60761018808</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460495496</v>
       </c>
       <c r="R20" t="n">
-        <v>21.670098</v>
+        <v>3.295547</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.877735Z</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1789,7 +1789,7 @@
         <v>58.76</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>45410.72310302485</v>
+        <v>45413.10456682363</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1803,16 +1803,16 @@
         <v>5947.249583531834</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460506638</v>
       </c>
       <c r="R21" t="n">
-        <v>21.666098</v>
+        <v>3.304173</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.886812Z</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1853,7 +1853,7 @@
         <v>69.5</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>45410.72310304799</v>
+        <v>45413.10456685838</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1867,16 +1867,16 @@
         <v>5954.576926045537</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460517144</v>
       </c>
       <c r="R22" t="n">
-        <v>21.664099</v>
+        <v>3.310248</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.893913Z</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1917,7 +1917,7 @@
         <v>68.81999999999999</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>45410.72310308271</v>
+        <v>45413.10456688153</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -1931,16 +1931,16 @@
         <v>5961.365176405504</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460525363</v>
       </c>
       <c r="R23" t="n">
-        <v>21.661099</v>
+        <v>3.315349</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.901842Z</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1981,7 +1981,7 @@
         <v>68.81999999999999</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>45410.72310310585</v>
+        <v>45413.10456690464</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -1995,16 +1995,16 @@
         <v>5968.722413990787</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460534539</v>
       </c>
       <c r="R24" t="n">
-        <v>21.659099</v>
+        <v>3.321281</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.909499Z</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2045,7 +2045,7 @@
         <v>68.81999999999999</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>45410.72310312903</v>
+        <v>45413.1045669278</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2059,16 +2059,16 @@
         <v>5975.719104285435</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460543402</v>
       </c>
       <c r="R25" t="n">
-        <v>21.657097</v>
+        <v>3.326937</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.179570Z</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2109,7 +2109,7 @@
         <v>13.82</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>45410.72309858044</v>
+        <v>45413.10456290159</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2123,16 +2123,16 @@
         <v>5342.836800027802</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10459698577</v>
       </c>
       <c r="R26" t="n">
-        <v>22.050095</v>
+        <v>2.944873</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.917137Z</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -2173,7 +2173,7 @@
         <v>68.81999999999999</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>45410.7231031871</v>
+        <v>45413.10456698588</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2187,16 +2187,16 @@
         <v>5982.808144517456</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460552242</v>
       </c>
       <c r="R27" t="n">
-        <v>21.65208</v>
+        <v>3.329557</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.925202Z</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2237,7 +2237,7 @@
         <v>63.31</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>45410.72310322161</v>
+        <v>45413.10456700884</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2251,16 +2251,16 @@
         <v>5990.382430730809</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460561576</v>
       </c>
       <c r="R28" t="n">
-        <v>21.649098</v>
+        <v>3.335638</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.932806Z</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -2301,7 +2301,7 @@
         <v>70.84</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>45410.72310324478</v>
+        <v>45413.10456703198</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2315,16 +2315,16 @@
         <v>5997.366423393982</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460570377</v>
       </c>
       <c r="R29" t="n">
-        <v>21.647096</v>
+        <v>3.341243</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.940501Z</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -2365,7 +2365,7 @@
         <v>77.95999999999999</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>45410.7231032679</v>
+        <v>45413.10456705512</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2379,16 +2379,16 @@
         <v>6002.920701519304</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460579283</v>
       </c>
       <c r="R30" t="n">
-        <v>21.645098</v>
+        <v>3.346938</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.948261Z</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -2429,7 +2429,7 @@
         <v>68.28</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>45410.72310330263</v>
+        <v>45413.10456707828</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2443,16 +2443,16 @@
         <v>6009.978985776331</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460588265</v>
       </c>
       <c r="R31" t="n">
-        <v>21.642098</v>
+        <v>3.352697</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.955794Z</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -2493,7 +2493,7 @@
         <v>68.28</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>45410.72310332578</v>
+        <v>45413.10456710141</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2507,16 +2507,16 @@
         <v>6017.376090116158</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460596983</v>
       </c>
       <c r="R32" t="n">
-        <v>21.640098</v>
+        <v>3.358232</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.963907Z</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -2557,7 +2557,7 @@
         <v>57.55</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>45410.72310334892</v>
+        <v>45413.10456712457</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2571,16 +2571,16 @@
         <v>6025.43077472022</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460606374</v>
       </c>
       <c r="R33" t="n">
-        <v>21.638099</v>
+        <v>3.364344</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.972080Z</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -2621,7 +2621,7 @@
         <v>69.90000000000001</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>45410.7231033953</v>
+        <v>45413.10456714772</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2635,16 +2635,16 @@
         <v>6032.700669816839</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460615833</v>
       </c>
       <c r="R34" t="n">
-        <v>21.634091</v>
+        <v>3.370517</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.980347Z</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -2685,7 +2685,7 @@
         <v>69.90000000000001</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>45410.72310341838</v>
+        <v>45413.10456717087</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2699,16 +2699,16 @@
         <v>6039.343249874757</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460625402</v>
       </c>
       <c r="R35" t="n">
-        <v>21.632097</v>
+        <v>3.376784</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.988041Z</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -2749,7 +2749,7 @@
         <v>69.92</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>45410.72310345309</v>
+        <v>45413.10456719402</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2763,16 +2763,16 @@
         <v>6046.173819788663</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460634307</v>
       </c>
       <c r="R36" t="n">
-        <v>21.629098</v>
+        <v>3.382478</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.185318Z</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -2813,7 +2813,7 @@
         <v>13.82</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>45410.7230986267</v>
+        <v>45413.1045629505</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -2827,16 +2827,16 @@
         <v>5355.333515858099</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10459705229</v>
       </c>
       <c r="R37" t="n">
-        <v>22.046098</v>
+        <v>2.946395</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.995706Z</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -2877,7 +2877,7 @@
         <v>69.95</v>
       </c>
       <c r="M38" s="2" t="n">
-        <v>45410.72310349941</v>
+        <v>45413.1045672403</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -2891,16 +2891,16 @@
         <v>6052.959108629628</v>
       </c>
       <c r="Q38" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460643179</v>
       </c>
       <c r="R38" t="n">
-        <v>21.625096</v>
+        <v>3.386144</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.005545Z</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -2941,7 +2941,7 @@
         <v>69.95</v>
       </c>
       <c r="M39" s="2" t="n">
-        <v>45410.72310352253</v>
+        <v>45413.10456726345</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -2955,16 +2955,16 @@
         <v>6059.654776218875</v>
       </c>
       <c r="Q39" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460654566</v>
       </c>
       <c r="R39" t="n">
-        <v>21.623098</v>
+        <v>3.393983</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.013866Z</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -3005,7 +3005,7 @@
         <v>69.95</v>
       </c>
       <c r="M40" s="2" t="n">
-        <v>45410.72310354566</v>
+        <v>45413.10456728659</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3019,16 +3019,16 @@
         <v>6066.568039299177</v>
       </c>
       <c r="Q40" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460664197</v>
       </c>
       <c r="R40" t="n">
-        <v>21.6211</v>
+        <v>3.400304</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.022286Z</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -3069,7 +3069,7 @@
         <v>69.95</v>
       </c>
       <c r="M41" s="2" t="n">
-        <v>45410.723103592</v>
+        <v>45413.10456730975</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3083,16 +3083,16 @@
         <v>6073.386027319122</v>
       </c>
       <c r="Q41" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460673942</v>
       </c>
       <c r="R41" t="n">
-        <v>21.617096</v>
+        <v>3.406724</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.030626Z</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -3133,7 +3133,7 @@
         <v>69.95</v>
       </c>
       <c r="M42" s="2" t="n">
-        <v>45410.72310361515</v>
+        <v>45413.10456733294</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3147,16 +3147,16 @@
         <v>6080.214789663089</v>
       </c>
       <c r="Q42" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460683595</v>
       </c>
       <c r="R42" t="n">
-        <v>21.615096</v>
+        <v>3.41306</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.038941Z</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -3197,7 +3197,7 @@
         <v>69.95</v>
       </c>
       <c r="M43" s="2" t="n">
-        <v>45410.72310363829</v>
+        <v>45413.10456736205</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3211,16 +3211,16 @@
         <v>6087.056817675275</v>
       </c>
       <c r="Q43" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460693219</v>
       </c>
       <c r="R43" t="n">
-        <v>21.613097</v>
+        <v>3.41886</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.046772Z</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -3261,7 +3261,7 @@
         <v>69.95</v>
       </c>
       <c r="M44" s="2" t="n">
-        <v>45410.72310366142</v>
+        <v>45413.1045673858</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3275,16 +3275,16 @@
         <v>6093.692887474708</v>
       </c>
       <c r="Q44" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460702283</v>
       </c>
       <c r="R44" t="n">
-        <v>21.611098</v>
+        <v>3.424639</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.054603Z</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -3325,7 +3325,7 @@
         <v>69.95</v>
       </c>
       <c r="M45" s="2" t="n">
-        <v>45410.72310369617</v>
+        <v>45413.10456740895</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3339,16 +3339,16 @@
         <v>6100.529860739283</v>
       </c>
       <c r="Q45" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460711346</v>
       </c>
       <c r="R45" t="n">
-        <v>21.608096</v>
+        <v>3.43047</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.062619Z</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -3389,7 +3389,7 @@
         <v>69.95</v>
       </c>
       <c r="M46" s="2" t="n">
-        <v>45410.72310371929</v>
+        <v>45413.10456743211</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3403,16 +3403,16 @@
         <v>6107.306445446073</v>
       </c>
       <c r="Q46" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460720624</v>
       </c>
       <c r="R46" t="n">
-        <v>21.606098</v>
+        <v>3.436485</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.070407Z</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -3453,7 +3453,7 @@
         <v>69.73</v>
       </c>
       <c r="M47" s="2" t="n">
-        <v>45410.72310374244</v>
+        <v>45413.10456745529</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3467,16 +3467,16 @@
         <v>6114.183650904665</v>
       </c>
       <c r="Q47" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460729638</v>
       </c>
       <c r="R47" t="n">
-        <v>21.604098</v>
+        <v>3.44227</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.191407Z</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -3517,7 +3517,7 @@
         <v>13.82</v>
       </c>
       <c r="M48" s="2" t="n">
-        <v>45410.72309866146</v>
+        <v>45413.10456298521</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3531,16 +3531,16 @@
         <v>5369.596099353797</v>
       </c>
       <c r="Q48" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10459712276</v>
       </c>
       <c r="R48" t="n">
-        <v>22.043095</v>
+        <v>2.949485</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.077680Z</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -3581,7 +3581,7 @@
         <v>69.65000000000001</v>
       </c>
       <c r="M49" s="2" t="n">
-        <v>45410.72310380034</v>
+        <v>45413.10456750154</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3595,16 +3595,16 @@
         <v>6121.093311687952</v>
       </c>
       <c r="Q49" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460738056</v>
       </c>
       <c r="R49" t="n">
-        <v>21.599095</v>
+        <v>3.445547</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.085084Z</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -3645,7 +3645,7 @@
         <v>69.65000000000001</v>
       </c>
       <c r="M50" s="2" t="n">
-        <v>45410.72310383506</v>
+        <v>45413.10456752469</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3659,16 +3659,16 @@
         <v>6127.885518593884</v>
       </c>
       <c r="Q50" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460746625</v>
       </c>
       <c r="R50" t="n">
-        <v>21.596096</v>
+        <v>3.450951</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.092126Z</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -3709,7 +3709,7 @@
         <v>69.65000000000001</v>
       </c>
       <c r="M51" s="2" t="n">
-        <v>45410.7231038582</v>
+        <v>45413.10456755941</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -3723,16 +3723,16 @@
         <v>6134.865678860402</v>
       </c>
       <c r="Q51" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460754776</v>
       </c>
       <c r="R51" t="n">
-        <v>21.594097</v>
+        <v>3.454993</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.099310Z</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -3773,7 +3773,7 @@
         <v>69.65000000000001</v>
       </c>
       <c r="M52" s="2" t="n">
-        <v>45410.72310388134</v>
+        <v>45413.10456758262</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -3787,16 +3787,16 @@
         <v>6142.033572940702</v>
       </c>
       <c r="Q52" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.1046076309</v>
       </c>
       <c r="R52" t="n">
-        <v>21.592097</v>
+        <v>3.460172</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.105896Z</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -3837,7 +3837,7 @@
         <v>69.65000000000001</v>
       </c>
       <c r="M53" s="2" t="n">
-        <v>45410.72310390447</v>
+        <v>45413.10456760572</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -3851,16 +3851,16 @@
         <v>6148.980299232919</v>
       </c>
       <c r="Q53" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460770713</v>
       </c>
       <c r="R53" t="n">
-        <v>21.590099</v>
+        <v>3.464762</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.112569Z</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -3901,7 +3901,7 @@
         <v>69.65000000000001</v>
       </c>
       <c r="M54" s="2" t="n">
-        <v>45410.72310392762</v>
+        <v>45413.10456762886</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -3915,16 +3915,16 @@
         <v>6155.935885075608</v>
       </c>
       <c r="Q54" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460778436</v>
       </c>
       <c r="R54" t="n">
-        <v>21.588099</v>
+        <v>3.469436</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.120193Z</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -3965,7 +3965,7 @@
         <v>70.65000000000001</v>
       </c>
       <c r="M55" s="2" t="n">
-        <v>45410.72310397393</v>
+        <v>45413.10456765202</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -3979,16 +3979,16 @@
         <v>6162.473241090182</v>
       </c>
       <c r="Q55" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460787261</v>
       </c>
       <c r="R55" t="n">
-        <v>21.584097</v>
+        <v>3.475059</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.129083Z</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -4029,7 +4029,7 @@
         <v>70.65000000000001</v>
       </c>
       <c r="M56" s="2" t="n">
-        <v>45410.72310399709</v>
+        <v>45413.10456767518</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4043,16 +4043,16 @@
         <v>6169.245278464519</v>
       </c>
       <c r="Q56" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.1046079755</v>
       </c>
       <c r="R56" t="n">
-        <v>21.582097</v>
+        <v>3.481947</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.136097Z</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -4093,7 +4093,7 @@
         <v>70.65000000000001</v>
       </c>
       <c r="M57" s="2" t="n">
-        <v>45410.72310403181</v>
+        <v>45413.10456770988</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4107,16 +4107,16 @@
         <v>6175.910080056748</v>
       </c>
       <c r="Q57" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460805668</v>
       </c>
       <c r="R57" t="n">
-        <v>21.579097</v>
+        <v>3.485963</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.142904Z</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -4157,7 +4157,7 @@
         <v>70.65000000000001</v>
       </c>
       <c r="M58" s="2" t="n">
-        <v>45410.72310405494</v>
+        <v>45413.10456773303</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4171,16 +4171,16 @@
         <v>6182.568086222528</v>
       </c>
       <c r="Q58" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460813547</v>
       </c>
       <c r="R58" t="n">
-        <v>21.577098</v>
+        <v>3.49077</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.196853Z</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -4221,7 +4221,7 @@
         <v>11.41</v>
       </c>
       <c r="M59" s="2" t="n">
-        <v>45410.7230987193</v>
+        <v>45413.10456301994</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4235,16 +4235,16 @@
         <v>5385.751367949391</v>
       </c>
       <c r="Q59" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.1045971858</v>
       </c>
       <c r="R59" t="n">
-        <v>22.038098</v>
+        <v>2.95193</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.150526Z</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -4285,7 +4285,7 @@
         <v>70.65000000000001</v>
       </c>
       <c r="M60" s="2" t="n">
-        <v>45410.72310410125</v>
+        <v>45413.10456777937</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4299,16 +4299,16 @@
         <v>6189.226088941043</v>
       </c>
       <c r="Q60" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460822368</v>
       </c>
       <c r="R60" t="n">
-        <v>21.573097</v>
+        <v>3.494389</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.158020Z</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -4349,7 +4349,7 @@
         <v>70.65000000000001</v>
       </c>
       <c r="M61" s="2" t="n">
-        <v>45410.72310412437</v>
+        <v>45413.10456780247</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4363,16 +4363,16 @@
         <v>6196.016769510171</v>
       </c>
       <c r="Q61" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460831042</v>
       </c>
       <c r="R61" t="n">
-        <v>21.571099</v>
+        <v>3.499886</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.165365Z</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -4413,7 +4413,7 @@
         <v>73.39</v>
       </c>
       <c r="M62" s="2" t="n">
-        <v>45410.72310417069</v>
+        <v>45413.10456782563</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4427,16 +4427,16 @@
         <v>6202.216469856814</v>
       </c>
       <c r="Q62" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460839543</v>
       </c>
       <c r="R62" t="n">
-        <v>21.567097</v>
+        <v>3.505231</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.172708Z</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -4477,7 +4477,7 @@
         <v>76.12</v>
       </c>
       <c r="M63" s="2" t="n">
-        <v>45410.72310419383</v>
+        <v>45413.10456784876</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4491,16 +4491,16 @@
         <v>6207.228695904497</v>
       </c>
       <c r="Q63" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460848042</v>
       </c>
       <c r="R63" t="n">
-        <v>21.565098</v>
+        <v>3.510575</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.180137Z</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -4541,7 +4541,7 @@
         <v>75.66</v>
       </c>
       <c r="M64" s="2" t="n">
-        <v>45410.72310422858</v>
+        <v>45413.10456787192</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4555,16 +4555,16 @@
         <v>6211.890642343991</v>
       </c>
       <c r="Q64" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.1046085664</v>
       </c>
       <c r="R64" t="n">
-        <v>21.562096</v>
+        <v>3.516003</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.187454Z</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -4605,7 +4605,7 @@
         <v>78.20999999999999</v>
       </c>
       <c r="M65" s="2" t="n">
-        <v>45410.7231042517</v>
+        <v>45413.10456789506</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -4619,16 +4619,16 @@
         <v>6216.245577015105</v>
       </c>
       <c r="Q65" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460865109</v>
       </c>
       <c r="R65" t="n">
-        <v>21.560098</v>
+        <v>3.521321</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.194636Z</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -4669,7 +4669,7 @@
         <v>80.5</v>
       </c>
       <c r="M66" s="2" t="n">
-        <v>45410.72310427488</v>
+        <v>45413.10456792979</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -4683,16 +4683,16 @@
         <v>6219.890801555797</v>
       </c>
       <c r="Q66" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460873421</v>
       </c>
       <c r="R66" t="n">
-        <v>21.558096</v>
+        <v>3.525502</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.201644Z</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -4733,7 +4733,7 @@
         <v>81.89</v>
       </c>
       <c r="M67" s="2" t="n">
-        <v>45410.72310430957</v>
+        <v>45413.10456795293</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -4747,16 +4747,16 @@
         <v>6222.967479192072</v>
       </c>
       <c r="Q67" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460881532</v>
       </c>
       <c r="R67" t="n">
-        <v>21.555098</v>
+        <v>3.530511</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.208896Z</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -4797,7 +4797,7 @@
         <v>82.72</v>
       </c>
       <c r="M68" s="2" t="n">
-        <v>45410.72310434433</v>
+        <v>45413.10456797608</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -4811,16 +4811,16 @@
         <v>6225.633210251265</v>
       </c>
       <c r="Q68" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460889926</v>
       </c>
       <c r="R68" t="n">
-        <v>21.552095</v>
+        <v>3.535763</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.216512Z</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -4861,7 +4861,7 @@
         <v>83.09</v>
       </c>
       <c r="M69" s="2" t="n">
-        <v>45410.72310436744</v>
+        <v>45413.10456799924</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -4875,16 +4875,16 @@
         <v>6228.001000879258</v>
       </c>
       <c r="Q69" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460898741</v>
       </c>
       <c r="R69" t="n">
-        <v>21.550098</v>
+        <v>3.541378</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.202371Z</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -4925,7 +4925,7 @@
         <v>6.29</v>
       </c>
       <c r="M70" s="2" t="n">
-        <v>45410.72309876561</v>
+        <v>45413.10456306623</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -4939,16 +4939,16 @@
         <v>5404.557892686719</v>
       </c>
       <c r="Q70" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10459724966</v>
       </c>
       <c r="R70" t="n">
-        <v>22.034096</v>
+        <v>2.953449</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.223810Z</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -4989,7 +4989,7 @@
         <v>78.09999999999999</v>
       </c>
       <c r="M71" s="2" t="n">
-        <v>45410.7231044253</v>
+        <v>45413.10456804554</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5003,16 +5003,16 @@
         <v>6230.878919946708</v>
       </c>
       <c r="Q71" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460907187</v>
       </c>
       <c r="R71" t="n">
-        <v>21.545099</v>
+        <v>3.544676</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.230896Z</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -5053,7 +5053,7 @@
         <v>86.64</v>
       </c>
       <c r="M72" s="2" t="n">
-        <v>45410.72310444845</v>
+        <v>45413.10456808026</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5067,16 +5067,16 @@
         <v>6233.493540297285</v>
       </c>
       <c r="Q72" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460915389</v>
       </c>
       <c r="R72" t="n">
-        <v>21.543099</v>
+        <v>3.548762</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.238134Z</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -5117,7 +5117,7 @@
         <v>86.64</v>
       </c>
       <c r="M73" s="2" t="n">
-        <v>45410.72310447162</v>
+        <v>45413.1045681034</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5131,16 +5131,16 @@
         <v>6234.641987150731</v>
       </c>
       <c r="Q73" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460923766</v>
       </c>
       <c r="R73" t="n">
-        <v>21.541097</v>
+        <v>3.554</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.264603Z</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -5181,7 +5181,7 @@
         <v>86.64</v>
       </c>
       <c r="M74" s="2" t="n">
-        <v>45410.72310449477</v>
+        <v>45413.10456812656</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5195,16 +5195,16 @@
         <v>6235.795982418607</v>
       </c>
       <c r="Q74" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460954402</v>
       </c>
       <c r="R74" t="n">
-        <v>21.539097</v>
+        <v>3.578468</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.276978Z</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -5245,7 +5245,7 @@
         <v>86.64</v>
       </c>
       <c r="M75" s="2" t="n">
-        <v>45410.72310452951</v>
+        <v>45413.1045681497</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5259,16 +5259,16 @@
         <v>6236.963209109799</v>
       </c>
       <c r="Q75" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460968725</v>
       </c>
       <c r="R75" t="n">
-        <v>21.536095</v>
+        <v>3.588844</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.284598Z</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -5309,7 +5309,7 @@
         <v>89.28</v>
       </c>
       <c r="M76" s="2" t="n">
-        <v>45410.72310456421</v>
+        <v>45413.10456817285</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5323,16 +5323,16 @@
         <v>6237.29965603046</v>
       </c>
       <c r="Q76" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460977544</v>
       </c>
       <c r="R76" t="n">
-        <v>21.533097</v>
+        <v>3.594464</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.292447Z</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -5373,7 +5373,7 @@
         <v>89.28</v>
       </c>
       <c r="M77" s="2" t="n">
-        <v>45410.72310459893</v>
+        <v>45413.10456820758</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5387,16 +5387,16 @@
         <v>6237.550928682876</v>
       </c>
       <c r="Q77" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460986628</v>
       </c>
       <c r="R77" t="n">
-        <v>21.530097</v>
+        <v>3.599312</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.300327Z</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -5437,7 +5437,7 @@
         <v>89.28</v>
       </c>
       <c r="M78" s="2" t="n">
-        <v>45410.72310462208</v>
+        <v>45413.10456823071</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5451,16 +5451,16 @@
         <v>6237.803035198768</v>
       </c>
       <c r="Q78" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460995749</v>
       </c>
       <c r="R78" t="n">
-        <v>21.528097</v>
+        <v>3.605194</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.307943Z</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -5501,7 +5501,7 @@
         <v>91.3</v>
       </c>
       <c r="M79" s="2" t="n">
-        <v>45410.72310465683</v>
+        <v>45413.10456825393</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -5515,16 +5515,16 @@
         <v>6237.869537081404</v>
       </c>
       <c r="Q79" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461004564</v>
       </c>
       <c r="R79" t="n">
-        <v>21.525095</v>
+        <v>3.610803</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.315685Z</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -5565,7 +5565,7 @@
         <v>92.79000000000001</v>
       </c>
       <c r="M80" s="2" t="n">
-        <v>45410.72310467994</v>
+        <v>45413.10456827701</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -5579,16 +5579,16 @@
         <v>6236.892200709663</v>
       </c>
       <c r="Q80" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461013524</v>
       </c>
       <c r="R80" t="n">
-        <v>21.523098</v>
+        <v>3.616551</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.207955Z</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -5629,7 +5629,7 @@
         <v>6.29</v>
       </c>
       <c r="M81" s="2" t="n">
-        <v>45410.72309881191</v>
+        <v>45413.1045631125</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -5643,16 +5643,16 @@
         <v>5423.824945085053</v>
       </c>
       <c r="Q81" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.1045973143</v>
       </c>
       <c r="R81" t="n">
-        <v>22.030096</v>
+        <v>2.955035</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.322645Z</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -5693,7 +5693,7 @@
         <v>95.72</v>
       </c>
       <c r="M82" s="2" t="n">
-        <v>45410.72310473786</v>
+        <v>45413.10456832331</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -5707,16 +5707,16 @@
         <v>6235.544153013159</v>
       </c>
       <c r="Q82" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.1046102158</v>
       </c>
       <c r="R82" t="n">
-        <v>21.518094</v>
+        <v>3.619511</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.330112Z</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -5757,7 +5757,7 @@
         <v>101.53</v>
       </c>
       <c r="M83" s="2" t="n">
-        <v>45410.72310477256</v>
+        <v>45413.10456834646</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -5771,16 +5771,16 @@
         <v>6231.515824773239</v>
       </c>
       <c r="Q83" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461030222</v>
       </c>
       <c r="R83" t="n">
-        <v>21.515096</v>
+        <v>3.624978</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.337403Z</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -5821,7 +5821,7 @@
         <v>99.73</v>
       </c>
       <c r="M84" s="2" t="n">
-        <v>45410.72310481886</v>
+        <v>45413.10456836959</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -5835,16 +5835,16 @@
         <v>6228.132692548</v>
       </c>
       <c r="Q84" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461038661</v>
       </c>
       <c r="R84" t="n">
-        <v>21.511096</v>
+        <v>3.63027</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.344421Z</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -5885,7 +5885,7 @@
         <v>99.73</v>
       </c>
       <c r="M85" s="2" t="n">
-        <v>45410.72310485374</v>
+        <v>45413.10456839275</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -5899,16 +5899,16 @@
         <v>6224.838605948645</v>
       </c>
       <c r="Q85" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461046784</v>
       </c>
       <c r="R85" t="n">
-        <v>21.508082</v>
+        <v>3.635287</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.351552Z</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -5949,7 +5949,7 @@
         <v>93.93000000000001</v>
       </c>
       <c r="M86" s="2" t="n">
-        <v>45410.72310488827</v>
+        <v>45413.1045684159</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -5963,16 +5963,16 @@
         <v>6222.05501797677</v>
       </c>
       <c r="Q86" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461055037</v>
       </c>
       <c r="R86" t="n">
-        <v>21.505098</v>
+        <v>3.640418</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.358868Z</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -6013,7 +6013,7 @@
         <v>102.47</v>
       </c>
       <c r="M87" s="2" t="n">
-        <v>45410.72310493461</v>
+        <v>45413.10456845061</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6027,16 +6027,16 @@
         <v>6217.817468511798</v>
       </c>
       <c r="Q87" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461063505</v>
       </c>
       <c r="R87" t="n">
-        <v>21.501095</v>
+        <v>3.644735</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.366541Z</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -6077,7 +6077,7 @@
         <v>102.47</v>
       </c>
       <c r="M88" s="2" t="n">
-        <v>45410.72310496931</v>
+        <v>45413.10456847376</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6091,16 +6091,16 @@
         <v>6213.434228155718</v>
       </c>
       <c r="Q88" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461072385</v>
       </c>
       <c r="R88" t="n">
-        <v>21.498097</v>
+        <v>3.650408</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.373853Z</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -6141,7 +6141,7 @@
         <v>105.59</v>
       </c>
       <c r="M89" s="2" t="n">
-        <v>45410.7231050156</v>
+        <v>45413.10456849691</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6155,16 +6155,16 @@
         <v>6208.454990346045</v>
       </c>
       <c r="Q89" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461080848</v>
       </c>
       <c r="R89" t="n">
-        <v>21.494097</v>
+        <v>3.65572</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.382778Z</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -6205,7 +6205,7 @@
         <v>104.87</v>
       </c>
       <c r="M90" s="2" t="n">
-        <v>45410.72310503875</v>
+        <v>45413.10456852006</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6219,16 +6219,16 @@
         <v>6203.08700306859</v>
       </c>
       <c r="Q90" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461091178</v>
       </c>
       <c r="R90" t="n">
-        <v>21.492097</v>
+        <v>3.662645</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.389835Z</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -6269,7 +6269,7 @@
         <v>104.57</v>
       </c>
       <c r="M91" s="2" t="n">
-        <v>45410.72310507347</v>
+        <v>45413.10456854322</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6283,16 +6283,16 @@
         <v>6198.054778344291</v>
       </c>
       <c r="Q91" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461099346</v>
       </c>
       <c r="R91" t="n">
-        <v>21.489097</v>
+        <v>3.667701</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.213707Z</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -6333,7 +6333,7 @@
         <v>6.29</v>
       </c>
       <c r="M92" s="2" t="n">
-        <v>45410.72309885817</v>
+        <v>45413.10456315881</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -6347,16 +6347,16 @@
         <v>5443.897513388251</v>
       </c>
       <c r="Q92" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10459738087</v>
       </c>
       <c r="R92" t="n">
-        <v>22.026099</v>
+        <v>2.956786</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.396817Z</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -6397,7 +6397,7 @@
         <v>104.56</v>
       </c>
       <c r="M93" s="2" t="n">
-        <v>45410.72310514294</v>
+        <v>45413.10456857794</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -6411,16 +6411,16 @@
         <v>6192.879979749186</v>
       </c>
       <c r="Q93" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461107427</v>
       </c>
       <c r="R93" t="n">
-        <v>21.483095</v>
+        <v>3.671683</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.404281Z</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -6461,7 +6461,7 @@
         <v>104.56</v>
       </c>
       <c r="M94" s="2" t="n">
-        <v>45410.72310517763</v>
+        <v>45413.10456861266</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -6475,16 +6475,16 @@
         <v>6187.809966187493</v>
       </c>
       <c r="Q94" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461116066</v>
       </c>
       <c r="R94" t="n">
-        <v>21.480098</v>
+        <v>3.676147</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.411652Z</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -6525,7 +6525,7 @@
         <v>103.03</v>
       </c>
       <c r="M95" s="2" t="n">
-        <v>45410.72310521236</v>
+        <v>45413.10456863589</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -6539,16 +6539,16 @@
         <v>6183.088402786712</v>
       </c>
       <c r="Q95" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461124597</v>
       </c>
       <c r="R95" t="n">
-        <v>21.477097</v>
+        <v>3.681511</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.418672Z</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -6589,7 +6589,7 @@
         <v>103.25</v>
       </c>
       <c r="M96" s="2" t="n">
-        <v>45410.72310524706</v>
+        <v>45413.10456867014</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -6603,16 +6603,16 @@
         <v>6178.435404440645</v>
       </c>
       <c r="Q96" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461132722</v>
       </c>
       <c r="R96" t="n">
-        <v>21.474099</v>
+        <v>3.685572</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.425944Z</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -6653,7 +6653,7 @@
         <v>103.68</v>
       </c>
       <c r="M97" s="2" t="n">
-        <v>45410.72310528178</v>
+        <v>45413.10456869367</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -6667,16 +6667,16 @@
         <v>6173.721402138416</v>
       </c>
       <c r="Q97" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461141139</v>
       </c>
       <c r="R97" t="n">
-        <v>21.471099</v>
+        <v>3.690811</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.432765Z</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -6717,7 +6717,7 @@
         <v>103.35</v>
       </c>
       <c r="M98" s="2" t="n">
-        <v>45410.72310533971</v>
+        <v>45413.10456871682</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -6731,16 +6731,16 @@
         <v>6169.129093124156</v>
       </c>
       <c r="Q98" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461149034</v>
       </c>
       <c r="R98" t="n">
-        <v>21.466094</v>
+        <v>3.695632</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.439843Z</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -6781,7 +6781,7 @@
         <v>97.61</v>
       </c>
       <c r="M99" s="2" t="n">
-        <v>45410.72310537439</v>
+        <v>45413.10456875159</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -6795,16 +6795,16 @@
         <v>6165.698893525479</v>
       </c>
       <c r="Q99" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461157226</v>
       </c>
       <c r="R99" t="n">
-        <v>21.463098</v>
+        <v>3.699705</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.447131Z</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -6845,7 +6845,7 @@
         <v>97.61</v>
       </c>
       <c r="M100" s="2" t="n">
-        <v>45410.72310539753</v>
+        <v>45413.10456877469</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -6859,16 +6859,16 @@
         <v>6163.066847268589</v>
       </c>
       <c r="Q100" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461165661</v>
       </c>
       <c r="R100" t="n">
-        <v>21.461098</v>
+        <v>3.704998</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.454068Z</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -6909,7 +6909,7 @@
         <v>94.70999999999999</v>
       </c>
       <c r="M101" s="2" t="n">
-        <v>45410.72310542067</v>
+        <v>45413.10456879785</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -6923,16 +6923,16 @@
         <v>6161.192708461449</v>
       </c>
       <c r="Q101" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.1046117369</v>
       </c>
       <c r="R101" t="n">
-        <v>21.459099</v>
+        <v>3.709934</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.461341Z</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -6973,7 +6973,7 @@
         <v>92.3</v>
       </c>
       <c r="M102" s="2" t="n">
-        <v>45410.72310545541</v>
+        <v>45413.10456882101</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -6987,16 +6987,16 @@
         <v>6159.962742043696</v>
       </c>
       <c r="Q102" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461182108</v>
       </c>
       <c r="R102" t="n">
-        <v>21.456097</v>
+        <v>3.715206</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.219572Z</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -7037,7 +7037,7 @@
         <v>1.51</v>
       </c>
       <c r="M103" s="2" t="n">
-        <v>45410.72309890451</v>
+        <v>45413.10456319353</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7051,16 +7051,16 @@
         <v>5463.809863331013</v>
       </c>
       <c r="Q103" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10459744875</v>
       </c>
       <c r="R103" t="n">
-        <v>22.022095</v>
+        <v>2.959651</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.468832Z</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -7101,7 +7101,7 @@
         <v>92.3</v>
       </c>
       <c r="M104" s="2" t="n">
-        <v>45410.7231055133</v>
+        <v>45413.10456886729</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -7115,16 +7115,16 @@
         <v>6159.140524681702</v>
       </c>
       <c r="Q104" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461190778</v>
       </c>
       <c r="R104" t="n">
-        <v>21.451096</v>
+        <v>3.718698</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.476020Z</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -7165,7 +7165,7 @@
         <v>90.66</v>
       </c>
       <c r="M105" s="2" t="n">
-        <v>45410.72310553647</v>
+        <v>45413.10456890161</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -7179,16 +7179,16 @@
         <v>6158.827114355904</v>
       </c>
       <c r="Q105" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461199097</v>
       </c>
       <c r="R105" t="n">
-        <v>21.449094</v>
+        <v>3.722921</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.483668Z</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -7229,7 +7229,7 @@
         <v>90.66</v>
       </c>
       <c r="M106" s="2" t="n">
-        <v>45410.72310557115</v>
+        <v>45413.10456892515</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -7243,16 +7243,16 @@
         <v>6158.602703390815</v>
       </c>
       <c r="Q106" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461207949</v>
       </c>
       <c r="R106" t="n">
-        <v>21.446098</v>
+        <v>3.728535</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.491061Z</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -7293,7 +7293,7 @@
         <v>89.65000000000001</v>
       </c>
       <c r="M107" s="2" t="n">
-        <v>45410.72310559428</v>
+        <v>45413.1045689484</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -7307,16 +7307,16 @@
         <v>6158.600405051195</v>
       </c>
       <c r="Q107" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461216506</v>
       </c>
       <c r="R107" t="n">
-        <v>21.444099</v>
+        <v>3.733919</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.498314Z</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -7357,7 +7357,7 @@
         <v>88.67</v>
       </c>
       <c r="M108" s="2" t="n">
-        <v>45410.72310561744</v>
+        <v>45413.10456897146</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -7371,16 +7371,16 @@
         <v>6158.884097223688</v>
       </c>
       <c r="Q108" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461224901</v>
       </c>
       <c r="R108" t="n">
-        <v>21.442098</v>
+        <v>3.73918</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.505561Z</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -7421,7 +7421,7 @@
         <v>88.42</v>
       </c>
       <c r="M109" s="2" t="n">
-        <v>45410.72310564059</v>
+        <v>45413.10456900617</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -7435,16 +7435,16 @@
         <v>6159.346821776205</v>
       </c>
       <c r="Q109" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461233289</v>
       </c>
       <c r="R109" t="n">
-        <v>21.440098</v>
+        <v>3.743428</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.513479Z</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -7485,7 +7485,7 @@
         <v>89.78</v>
       </c>
       <c r="M110" s="2" t="n">
-        <v>45410.72310566376</v>
+        <v>45413.10456902893</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -7499,16 +7499,16 @@
         <v>6159.684771427043</v>
       </c>
       <c r="Q110" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461242453</v>
       </c>
       <c r="R110" t="n">
-        <v>21.438096</v>
+        <v>3.749379</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.520994Z</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -7549,7 +7549,7 @@
         <v>89.78</v>
       </c>
       <c r="M111" s="2" t="n">
-        <v>45410.72310571013</v>
+        <v>45413.10456905248</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -7563,16 +7563,16 @@
         <v>6159.764635068922</v>
       </c>
       <c r="Q111" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.1046125115</v>
       </c>
       <c r="R111" t="n">
-        <v>21.43409</v>
+        <v>3.75486</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.528062Z</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -7613,7 +7613,7 @@
         <v>94.08</v>
       </c>
       <c r="M112" s="2" t="n">
-        <v>45410.72310575638</v>
+        <v>45413.10456907561</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -7627,16 +7627,16 @@
         <v>6158.455207381297</v>
       </c>
       <c r="Q112" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461259331</v>
       </c>
       <c r="R112" t="n">
-        <v>21.430094</v>
+        <v>3.759929</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.535303Z</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -7677,7 +7677,7 @@
         <v>96.81</v>
       </c>
       <c r="M113" s="2" t="n">
-        <v>45410.72310579109</v>
+        <v>45413.1045691099</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -7691,16 +7691,16 @@
         <v>6156.488781105181</v>
       </c>
       <c r="Q113" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461267712</v>
       </c>
       <c r="R113" t="n">
-        <v>21.427095</v>
+        <v>3.764208</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.122783Z</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -7741,7 +7741,7 @@
         <v>193.97</v>
       </c>
       <c r="M114" s="2" t="n">
-        <v>45410.72309809431</v>
+        <v>45413.10456243728</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -7755,16 +7755,16 @@
         <v>5345.65645961725</v>
       </c>
       <c r="Q114" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10459632851</v>
       </c>
       <c r="R114" t="n">
-        <v>22.092097</v>
+        <v>2.928202</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.225411Z</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -7805,7 +7805,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="M115" s="2" t="n">
-        <v>45410.72309898553</v>
+        <v>45413.10456326302</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -7819,16 +7819,16 @@
         <v>5484.051551062724</v>
       </c>
       <c r="Q115" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10459751633</v>
       </c>
       <c r="R115" t="n">
-        <v>22.015095</v>
+        <v>2.959486</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.542083Z</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -7869,7 +7869,7 @@
         <v>99.81999999999999</v>
       </c>
       <c r="M116" s="2" t="n">
-        <v>45410.72310584893</v>
+        <v>45413.10456915665</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -7883,16 +7883,16 @@
         <v>6153.770584525625</v>
       </c>
       <c r="Q116" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461275559</v>
       </c>
       <c r="R116" t="n">
-        <v>21.422098</v>
+        <v>3.766949</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.549038Z</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -7933,7 +7933,7 @@
         <v>99.81999999999999</v>
       </c>
       <c r="M117" s="2" t="n">
-        <v>45410.7231058953</v>
+        <v>45413.10456917978</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -7947,16 +7947,16 @@
         <v>6150.265930846796</v>
       </c>
       <c r="Q117" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461283609</v>
       </c>
       <c r="R117" t="n">
-        <v>21.418091</v>
+        <v>3.771905</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.556335Z</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -7997,7 +7997,7 @@
         <v>98.48999999999999</v>
       </c>
       <c r="M118" s="2" t="n">
-        <v>45410.72310593013</v>
+        <v>45413.10456920294</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8011,16 +8011,16 @@
         <v>6147.442495891128</v>
       </c>
       <c r="Q118" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461292054</v>
       </c>
       <c r="R118" t="n">
-        <v>21.415082</v>
+        <v>3.777201</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.563376Z</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -8061,7 +8061,7 @@
         <v>98.48999999999999</v>
       </c>
       <c r="M119" s="2" t="n">
-        <v>45410.72310596463</v>
+        <v>45413.10456922609</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8075,16 +8075,16 @@
         <v>6145.461479832243</v>
       </c>
       <c r="Q119" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461300204</v>
       </c>
       <c r="R119" t="n">
-        <v>21.412101</v>
+        <v>3.782242</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.570431Z</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -8125,7 +8125,7 @@
         <v>98.48999999999999</v>
       </c>
       <c r="M120" s="2" t="n">
-        <v>45410.72310598778</v>
+        <v>45413.10456924927</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -8139,16 +8139,16 @@
         <v>6144.13937752675</v>
       </c>
       <c r="Q120" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461308369</v>
       </c>
       <c r="R120" t="n">
-        <v>21.410101</v>
+        <v>3.787294</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.577912Z</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -8189,7 +8189,7 @@
         <v>98.48999999999999</v>
       </c>
       <c r="M121" s="2" t="n">
-        <v>45410.72310601093</v>
+        <v>45413.10456927239</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -8203,16 +8203,16 @@
         <v>6143.484600530523</v>
       </c>
       <c r="Q121" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461317028</v>
       </c>
       <c r="R121" t="n">
-        <v>21.408101</v>
+        <v>3.792778</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.584753Z</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -8253,7 +8253,7 @@
         <v>98.48999999999999</v>
       </c>
       <c r="M122" s="2" t="n">
-        <v>45410.72310603409</v>
+        <v>45413.10456929554</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -8267,16 +8267,16 @@
         <v>6143.347697269424</v>
       </c>
       <c r="Q122" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461324946</v>
       </c>
       <c r="R122" t="n">
-        <v>21.4061</v>
+        <v>3.797618</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.591418Z</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -8317,7 +8317,7 @@
         <v>98.48999999999999</v>
       </c>
       <c r="M123" s="2" t="n">
-        <v>45410.72310606916</v>
+        <v>45413.1045693303</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -8331,16 +8331,16 @@
         <v>6143.232652831327</v>
       </c>
       <c r="Q123" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.1046133266</v>
       </c>
       <c r="R123" t="n">
-        <v>21.40307</v>
+        <v>3.80128</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.599641Z</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -8381,7 +8381,7 @@
         <v>98.48999999999999</v>
       </c>
       <c r="M124" s="2" t="n">
-        <v>45410.72310612693</v>
+        <v>45413.1045693534</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
@@ -8395,16 +8395,16 @@
         <v>6143.220598939728</v>
       </c>
       <c r="Q124" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461342177</v>
       </c>
       <c r="R124" t="n">
-        <v>21.398078</v>
+        <v>3.807507</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.633189Z</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -8445,7 +8445,7 @@
         <v>98.48999999999999</v>
       </c>
       <c r="M125" s="2" t="n">
-        <v>45410.72310616144</v>
+        <v>45413.10456937654</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -8459,16 +8459,16 @@
         <v>6143.218851534821</v>
       </c>
       <c r="Q125" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461381006</v>
       </c>
       <c r="R125" t="n">
-        <v>21.395097</v>
+        <v>3.839056</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.231584Z</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -8509,7 +8509,7 @@
         <v>359.01</v>
       </c>
       <c r="M126" s="2" t="n">
-        <v>45410.72309903183</v>
+        <v>45413.10456330928</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -8523,16 +8523,16 @@
         <v>5503.827193671576</v>
       </c>
       <c r="Q126" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10459758778</v>
       </c>
       <c r="R126" t="n">
-        <v>22.011095</v>
+        <v>2.961662</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.642666Z</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -8573,7 +8573,7 @@
         <v>98.48999999999999</v>
       </c>
       <c r="M127" s="2" t="n">
-        <v>45410.72310621932</v>
+        <v>45413.10456942285</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -8587,16 +8587,16 @@
         <v>6143.218624912945</v>
       </c>
       <c r="Q127" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461391974</v>
       </c>
       <c r="R127" t="n">
-        <v>21.390096</v>
+        <v>3.844532</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.651242Z</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -8637,7 +8637,7 @@
         <v>98.48999999999999</v>
       </c>
       <c r="M128" s="2" t="n">
-        <v>45410.72310625404</v>
+        <v>45413.104569446</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -8651,16 +8651,16 @@
         <v>6143.21847290315</v>
       </c>
       <c r="Q128" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.104614019</v>
       </c>
       <c r="R128" t="n">
-        <v>21.387096</v>
+        <v>3.851108</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.659936Z</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -8701,7 +8701,7 @@
         <v>98.48999999999999</v>
       </c>
       <c r="M129" s="2" t="n">
-        <v>45410.72310631189</v>
+        <v>45413.10456946914</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -8715,16 +8715,16 @@
         <v>6143.218452256076</v>
       </c>
       <c r="Q129" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461411963</v>
       </c>
       <c r="R129" t="n">
-        <v>21.382098</v>
+        <v>3.857802</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.668542Z</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -8765,7 +8765,7 @@
         <v>98.48999999999999</v>
       </c>
       <c r="M130" s="2" t="n">
-        <v>45410.72310635821</v>
+        <v>45413.10456949232</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
@@ -8779,16 +8779,16 @@
         <v>6143.218452256076</v>
       </c>
       <c r="Q130" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461421924</v>
       </c>
       <c r="R130" t="n">
-        <v>21.378095</v>
+        <v>3.864406</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.676818Z</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -8829,7 +8829,7 @@
         <v>98.48999999999999</v>
       </c>
       <c r="M131" s="2" t="n">
-        <v>45410.72310639289</v>
+        <v>45413.10456952661</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
@@ -8843,16 +8843,16 @@
         <v>6143.218452256076</v>
       </c>
       <c r="Q131" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461431502</v>
       </c>
       <c r="R131" t="n">
-        <v>21.375099</v>
+        <v>3.869719</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.684887Z</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -8893,7 +8893,7 @@
         <v>98.48999999999999</v>
       </c>
       <c r="M132" s="2" t="n">
-        <v>45410.72310642761</v>
+        <v>45413.10456955016</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
@@ -8907,16 +8907,16 @@
         <v>6143.218452256076</v>
       </c>
       <c r="Q132" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461440842</v>
       </c>
       <c r="R132" t="n">
-        <v>21.372099</v>
+        <v>3.875753</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.692550Z</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -8957,7 +8957,7 @@
         <v>98.48999999999999</v>
       </c>
       <c r="M133" s="2" t="n">
-        <v>45410.72310647393</v>
+        <v>45413.1045695733</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
@@ -8971,16 +8971,16 @@
         <v>6143.218452256076</v>
       </c>
       <c r="Q133" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.1046144971</v>
       </c>
       <c r="R133" t="n">
-        <v>21.368097</v>
+        <v>3.881417</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.700082Z</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -9021,7 +9021,7 @@
         <v>98.48999999999999</v>
       </c>
       <c r="M134" s="2" t="n">
-        <v>45410.72310652026</v>
+        <v>45413.10456959646</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
@@ -9035,16 +9035,16 @@
         <v>6143.218452256076</v>
       </c>
       <c r="Q134" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461458428</v>
       </c>
       <c r="R134" t="n">
-        <v>21.364095</v>
+        <v>3.886948</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.707610Z</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -9085,7 +9085,7 @@
         <v>98.48999999999999</v>
       </c>
       <c r="M135" s="2" t="n">
-        <v>45410.72310655493</v>
+        <v>45413.10456961961</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
@@ -9099,16 +9099,16 @@
         <v>6143.218452256076</v>
       </c>
       <c r="Q135" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461467141</v>
       </c>
       <c r="R135" t="n">
-        <v>21.361099</v>
+        <v>3.892476</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.715573Z</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -9149,7 +9149,7 @@
         <v>98.48999999999999</v>
       </c>
       <c r="M136" s="2" t="n">
-        <v>45410.72310658968</v>
+        <v>45413.10456964275</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
@@ -9163,16 +9163,16 @@
         <v>6143.218452256076</v>
       </c>
       <c r="Q136" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461476358</v>
       </c>
       <c r="R136" t="n">
-        <v>21.358097</v>
+        <v>3.898439</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.237684Z</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -9213,7 +9213,7 @@
         <v>359.01</v>
       </c>
       <c r="M137" s="2" t="n">
-        <v>45410.72309907811</v>
+        <v>45413.10456334411</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
@@ -9227,16 +9227,16 @@
         <v>5524.301419768067</v>
       </c>
       <c r="Q137" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10459765838</v>
       </c>
       <c r="R137" t="n">
-        <v>22.007096</v>
+        <v>2.964753</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.723084Z</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -9277,7 +9277,7 @@
         <v>98.48999999999999</v>
       </c>
       <c r="M138" s="2" t="n">
-        <v>45410.72310667073</v>
+        <v>45413.10456968905</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
@@ -9291,16 +9291,16 @@
         <v>6143.218452256076</v>
       </c>
       <c r="Q138" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461485051</v>
       </c>
       <c r="R138" t="n">
-        <v>21.351094</v>
+        <v>3.90195</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.730878Z</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -9341,7 +9341,7 @@
         <v>98.48999999999999</v>
       </c>
       <c r="M139" s="2" t="n">
-        <v>45410.72310670539</v>
+        <v>45413.1045697122</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
@@ -9355,16 +9355,16 @@
         <v>6143.218452256076</v>
       </c>
       <c r="Q139" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461494072</v>
       </c>
       <c r="R139" t="n">
-        <v>21.348099</v>
+        <v>3.907744</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.738387Z</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -9405,7 +9405,7 @@
         <v>98.48999999999999</v>
       </c>
       <c r="M140" s="2" t="n">
-        <v>45410.7231067401</v>
+        <v>45413.10456973533</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
@@ -9419,16 +9419,16 @@
         <v>6143.218452256076</v>
       </c>
       <c r="Q140" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461502763</v>
       </c>
       <c r="R140" t="n">
-        <v>21.3451</v>
+        <v>3.913254</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.746359Z</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -9469,7 +9469,7 @@
         <v>98.48999999999999</v>
       </c>
       <c r="M141" s="2" t="n">
-        <v>45410.72310677483</v>
+        <v>45413.10456975852</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
@@ -9483,16 +9483,16 @@
         <v>6143.218452256076</v>
       </c>
       <c r="Q141" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.1046151199</v>
       </c>
       <c r="R141" t="n">
-        <v>21.3421</v>
+        <v>3.919223</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.753910Z</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -9533,7 +9533,7 @@
         <v>98.88</v>
       </c>
       <c r="M142" s="2" t="n">
-        <v>45410.72310680956</v>
+        <v>45413.10456979322</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -9547,16 +9547,16 @@
         <v>6142.960697237488</v>
       </c>
       <c r="Q142" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461520729</v>
       </c>
       <c r="R142" t="n">
-        <v>21.339099</v>
+        <v>3.923776</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.761559Z</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -9597,7 +9597,7 @@
         <v>102</v>
       </c>
       <c r="M143" s="2" t="n">
-        <v>45410.72310684431</v>
+        <v>45413.10456981648</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -9611,16 +9611,16 @@
         <v>6142.096221636823</v>
       </c>
       <c r="Q143" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461529582</v>
       </c>
       <c r="R143" t="n">
-        <v>21.336096</v>
+        <v>3.929415</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.769061Z</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -9661,7 +9661,7 @@
         <v>102.39</v>
       </c>
       <c r="M144" s="2" t="n">
-        <v>45410.72310687901</v>
+        <v>45413.10456983952</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
@@ -9675,16 +9675,16 @@
         <v>6140.819464243122</v>
       </c>
       <c r="Q144" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461538265</v>
       </c>
       <c r="R144" t="n">
-        <v>21.333099</v>
+        <v>3.934927</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.776902Z</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -9725,7 +9725,7 @@
         <v>108.84</v>
       </c>
       <c r="M145" s="2" t="n">
-        <v>45410.72310691374</v>
+        <v>45413.10456986266</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
@@ -9739,16 +9739,16 @@
         <v>6138.087600754965</v>
       </c>
       <c r="Q145" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.1046154734</v>
       </c>
       <c r="R145" t="n">
-        <v>21.330098</v>
+        <v>3.940768</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.784549Z</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -9789,7 +9789,7 @@
         <v>112.26</v>
       </c>
       <c r="M146" s="2" t="n">
-        <v>45410.72310693689</v>
+        <v>45413.1045698858</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
@@ -9803,16 +9803,16 @@
         <v>6133.999167328025</v>
       </c>
       <c r="Q146" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461556191</v>
       </c>
       <c r="R146" t="n">
-        <v>21.328098</v>
+        <v>3.946416</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.792665Z</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -9853,7 +9853,7 @@
         <v>112.07</v>
       </c>
       <c r="M147" s="2" t="n">
-        <v>45410.72310696003</v>
+        <v>45413.10456990896</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
@@ -9867,16 +9867,16 @@
         <v>6129.196003935839</v>
       </c>
       <c r="Q147" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461565584</v>
       </c>
       <c r="R147" t="n">
-        <v>21.326098</v>
+        <v>3.952531</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.243384Z</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -9917,7 +9917,7 @@
         <v>359.01</v>
       </c>
       <c r="M148" s="2" t="n">
-        <v>45410.72309912444</v>
+        <v>45413.10456339039</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -9931,16 +9931,16 @@
         <v>5544.469283156092</v>
       </c>
       <c r="Q148" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10459772435</v>
       </c>
       <c r="R148" t="n">
-        <v>22.003093</v>
+        <v>2.966454</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.800405Z</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -9981,7 +9981,7 @@
         <v>111.02</v>
       </c>
       <c r="M149" s="2" t="n">
-        <v>45410.72310700632</v>
+        <v>45413.10456995526</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
@@ -9995,16 +9995,16 @@
         <v>6123.853070186217</v>
       </c>
       <c r="Q149" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461574543</v>
       </c>
       <c r="R149" t="n">
-        <v>21.322099</v>
+        <v>3.956271</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.808299Z</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -10045,7 +10045,7 @@
         <v>111.02</v>
       </c>
       <c r="M150" s="2" t="n">
-        <v>45410.72310704109</v>
+        <v>45413.1045699784</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -10059,16 +10059,16 @@
         <v>6117.840800916622</v>
       </c>
       <c r="Q150" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.1046158368</v>
       </c>
       <c r="R150" t="n">
-        <v>21.319095</v>
+        <v>3.962165</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.815854Z</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -10109,7 +10109,7 @@
         <v>111.02</v>
       </c>
       <c r="M151" s="2" t="n">
-        <v>45410.7231070758</v>
+        <v>45413.10457000155</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -10123,16 +10123,16 @@
         <v>6111.127490248442</v>
       </c>
       <c r="Q151" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461592424</v>
       </c>
       <c r="R151" t="n">
-        <v>21.316096</v>
+        <v>3.96772</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.823944Z</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -10173,7 +10173,7 @@
         <v>117.07</v>
       </c>
       <c r="M152" s="2" t="n">
-        <v>45410.72310709891</v>
+        <v>45413.10457003582</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -10187,16 +10187,16 @@
         <v>6102.264716082767</v>
       </c>
       <c r="Q152" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461601787</v>
       </c>
       <c r="R152" t="n">
-        <v>21.314099</v>
+        <v>3.972849</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.832251Z</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -10237,7 +10237,7 @@
         <v>117.07</v>
       </c>
       <c r="M153" s="2" t="n">
-        <v>45410.7231071221</v>
+        <v>45413.10457005897</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -10251,16 +10251,16 @@
         <v>6093.350246795239</v>
       </c>
       <c r="Q153" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461611402</v>
       </c>
       <c r="R153" t="n">
-        <v>21.312096</v>
+        <v>3.979156</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.840198Z</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -10301,7 +10301,7 @@
         <v>117.07</v>
       </c>
       <c r="M154" s="2" t="n">
-        <v>45410.72310715679</v>
+        <v>45413.10457008213</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -10315,16 +10315,16 @@
         <v>6084.504758545633</v>
       </c>
       <c r="Q154" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461620599</v>
       </c>
       <c r="R154" t="n">
-        <v>21.309098</v>
+        <v>3.985102</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.847962Z</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -10365,7 +10365,7 @@
         <v>120.22</v>
       </c>
       <c r="M155" s="2" t="n">
-        <v>45410.72310717998</v>
+        <v>45413.10457011683</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -10379,16 +10379,16 @@
         <v>6075.092035044223</v>
       </c>
       <c r="Q155" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461629586</v>
       </c>
       <c r="R155" t="n">
-        <v>21.307095</v>
+        <v>3.989868</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.856042Z</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -10429,7 +10429,7 @@
         <v>125.84</v>
       </c>
       <c r="M156" s="2" t="n">
-        <v>45410.72310720309</v>
+        <v>45413.10457013999</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -10443,16 +10443,16 @@
         <v>6063.400110727617</v>
       </c>
       <c r="Q156" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461638938</v>
       </c>
       <c r="R156" t="n">
-        <v>21.305098</v>
+        <v>3.995947</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.864079Z</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -10493,7 +10493,7 @@
         <v>125.84</v>
       </c>
       <c r="M157" s="2" t="n">
-        <v>45410.72310724941</v>
+        <v>45413.10457016314</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -10507,16 +10507,16 @@
         <v>6051.574788362747</v>
       </c>
       <c r="Q157" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461648239</v>
       </c>
       <c r="R157" t="n">
-        <v>21.301096</v>
+        <v>4.001983</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.872361Z</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -10557,7 +10557,7 @@
         <v>125.84</v>
       </c>
       <c r="M158" s="2" t="n">
-        <v>45410.72310727253</v>
+        <v>45413.10457019788</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -10571,16 +10571,16 @@
         <v>6040.054561316863</v>
       </c>
       <c r="Q158" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461657825</v>
       </c>
       <c r="R158" t="n">
-        <v>21.299098</v>
+        <v>4.007264</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.249606Z</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -10621,7 +10621,7 @@
         <v>355.56</v>
       </c>
       <c r="M159" s="2" t="n">
-        <v>45410.72309918228</v>
+        <v>45413.10456342501</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -10635,16 +10635,16 @@
         <v>5564.255726894643</v>
       </c>
       <c r="Q159" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10459779637</v>
       </c>
       <c r="R159" t="n">
-        <v>21.998096</v>
+        <v>2.969685</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.880532Z</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -10685,7 +10685,7 @@
         <v>125.84</v>
       </c>
       <c r="M160" s="2" t="n">
-        <v>45410.72310731883</v>
+        <v>45413.10457025626</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -10699,16 +10699,16 @@
         <v>6028.723925061659</v>
       </c>
       <c r="Q160" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461667283</v>
       </c>
       <c r="R160" t="n">
-        <v>21.295098</v>
+        <v>4.010391</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.888564Z</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -10749,7 +10749,7 @@
         <v>125.84</v>
       </c>
       <c r="M161" s="2" t="n">
-        <v>45410.72310735354</v>
+        <v>45413.10457027932</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -10763,16 +10763,16 @@
         <v>6016.772509568023</v>
       </c>
       <c r="Q161" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461676578</v>
       </c>
       <c r="R161" t="n">
-        <v>21.292099</v>
+        <v>4.016431</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.899150Z</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -10813,7 +10813,7 @@
         <v>125.84</v>
       </c>
       <c r="M162" s="2" t="n">
-        <v>45410.7231073767</v>
+        <v>45413.10457030246</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -10827,16 +10827,16 @@
         <v>6005.05466879055</v>
       </c>
       <c r="Q162" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461688831</v>
       </c>
       <c r="R162" t="n">
-        <v>21.290098</v>
+        <v>4.025017</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.907243Z</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -10877,7 +10877,7 @@
         <v>125.84</v>
       </c>
       <c r="M163" s="2" t="n">
-        <v>45410.72310739985</v>
+        <v>45413.10457032562</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -10891,16 +10891,16 @@
         <v>5993.101447852835</v>
       </c>
       <c r="Q163" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461698198</v>
       </c>
       <c r="R163" t="n">
-        <v>21.288098</v>
+        <v>4.03111</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.915590Z</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -10941,7 +10941,7 @@
         <v>125.84</v>
       </c>
       <c r="M164" s="2" t="n">
-        <v>45410.72310744616</v>
+        <v>45413.10457034876</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -10955,16 +10955,16 @@
         <v>5981.512523703671</v>
       </c>
       <c r="Q164" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461707858</v>
       </c>
       <c r="R164" t="n">
-        <v>21.284097</v>
+        <v>4.037457</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.924086Z</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -11005,7 +11005,7 @@
         <v>125.38</v>
       </c>
       <c r="M165" s="2" t="n">
-        <v>45410.72310746932</v>
+        <v>45413.10457037191</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
@@ -11019,16 +11019,16 @@
         <v>5969.624848859427</v>
       </c>
       <c r="Q165" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461717692</v>
       </c>
       <c r="R165" t="n">
-        <v>21.282096</v>
+        <v>4.043953</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.932918Z</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -11069,7 +11069,7 @@
         <v>125.09</v>
       </c>
       <c r="M166" s="2" t="n">
-        <v>45410.72310750404</v>
+        <v>45413.10457039507</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
@@ -11083,16 +11083,16 @@
         <v>5957.940199823855</v>
       </c>
       <c r="Q166" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461727915</v>
       </c>
       <c r="R166" t="n">
-        <v>21.279096</v>
+        <v>4.050784</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.968020Z</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -11133,7 +11133,7 @@
         <v>125.09</v>
       </c>
       <c r="M167" s="2" t="n">
-        <v>45410.72310753878</v>
+        <v>45413.10457042978</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -11147,16 +11147,16 @@
         <v>5946.747598903708</v>
       </c>
       <c r="Q167" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461768541</v>
       </c>
       <c r="R167" t="n">
-        <v>21.276094</v>
+        <v>4.082887</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.979117Z</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -11197,7 +11197,7 @@
         <v>125.09</v>
       </c>
       <c r="M168" s="2" t="n">
-        <v>45410.72310757346</v>
+        <v>45413.10457045294</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
@@ -11211,16 +11211,16 @@
         <v>5935.032716025635</v>
       </c>
       <c r="Q168" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461781386</v>
       </c>
       <c r="R168" t="n">
-        <v>21.273098</v>
+        <v>4.091983</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.987438Z</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -11261,7 +11261,7 @@
         <v>125.09</v>
       </c>
       <c r="M169" s="2" t="n">
-        <v>45410.72310759663</v>
+        <v>45413.10457047609</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
@@ -11275,16 +11275,16 @@
         <v>5923.682126760727</v>
       </c>
       <c r="Q169" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461791016</v>
       </c>
       <c r="R169" t="n">
-        <v>21.271096</v>
+        <v>4.098304</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.255425Z</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -11325,7 +11325,7 @@
         <v>355.56</v>
       </c>
       <c r="M170" s="2" t="n">
-        <v>45410.72309922855</v>
+        <v>45413.10456347139</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -11339,16 +11339,16 @@
         <v>5584.797734710031</v>
       </c>
       <c r="Q170" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10459786371</v>
       </c>
       <c r="R170" t="n">
-        <v>21.994098</v>
+        <v>2.971497</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:38.995468Z</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -11389,7 +11389,7 @@
         <v>125.09</v>
       </c>
       <c r="M171" s="2" t="n">
-        <v>45410.72310765447</v>
+        <v>45413.10457052237</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
@@ -11403,16 +11403,16 @@
         <v>5911.909461755115</v>
       </c>
       <c r="Q171" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.1046180031</v>
       </c>
       <c r="R171" t="n">
-        <v>21.266099</v>
+        <v>4.102335</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.003596Z</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -11453,7 +11453,7 @@
         <v>125.09</v>
       </c>
       <c r="M172" s="2" t="n">
-        <v>45410.72310768919</v>
+        <v>45413.10457054558</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -11467,16 +11467,16 @@
         <v>5900.715919363548</v>
       </c>
       <c r="Q172" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461809718</v>
       </c>
       <c r="R172" t="n">
-        <v>21.263099</v>
+        <v>4.108458</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.011785Z</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -11517,7 +11517,7 @@
         <v>125.09</v>
       </c>
       <c r="M173" s="2" t="n">
-        <v>45410.7231077239</v>
+        <v>45413.10457056868</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
@@ -11531,16 +11531,16 @@
         <v>5888.894789566038</v>
       </c>
       <c r="Q173" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461819196</v>
       </c>
       <c r="R173" t="n">
-        <v>21.2601</v>
+        <v>4.114651</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.020316Z</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -11581,7 +11581,7 @@
         <v>125.4</v>
       </c>
       <c r="M174" s="2" t="n">
-        <v>45410.72310777019</v>
+        <v>45413.10457059183</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
@@ -11595,16 +11595,16 @@
         <v>5877.263819355513</v>
       </c>
       <c r="Q174" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461829069</v>
       </c>
       <c r="R174" t="n">
-        <v>21.256101</v>
+        <v>4.121182</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.029592Z</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -11645,7 +11645,7 @@
         <v>125.74</v>
       </c>
       <c r="M175" s="2" t="n">
-        <v>45410.72310780497</v>
+        <v>45413.10457061497</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
@@ -11659,16 +11659,16 @@
         <v>5865.365666970378</v>
       </c>
       <c r="Q175" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461839806</v>
       </c>
       <c r="R175" t="n">
-        <v>21.253096</v>
+        <v>4.128458</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.042141Z</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -11709,7 +11709,7 @@
         <v>124.38</v>
       </c>
       <c r="M176" s="2" t="n">
-        <v>45410.72310783969</v>
+        <v>45413.10457063813</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
@@ -11723,16 +11723,16 @@
         <v>5856.04356023072</v>
       </c>
       <c r="Q176" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.1046185433</v>
       </c>
       <c r="R176" t="n">
-        <v>21.250096</v>
+        <v>4.139007</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.050946Z</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -11773,7 +11773,7 @@
         <v>126.22</v>
       </c>
       <c r="M177" s="2" t="n">
-        <v>45410.72310788598</v>
+        <v>45413.10457066127</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -11787,16 +11787,16 @@
         <v>5844.103567511854</v>
       </c>
       <c r="Q177" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461864521</v>
       </c>
       <c r="R177" t="n">
-        <v>21.246096</v>
+        <v>4.145812</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.058994Z</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -11837,7 +11837,7 @@
         <v>123.85</v>
       </c>
       <c r="M178" s="2" t="n">
-        <v>45410.723107944</v>
+        <v>45413.10457068442</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
@@ -11851,16 +11851,16 @@
         <v>5834.065052060361</v>
       </c>
       <c r="Q178" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461873835</v>
       </c>
       <c r="R178" t="n">
-        <v>21.241083</v>
+        <v>4.15186</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.066897Z</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -11901,7 +11901,7 @@
         <v>117.88</v>
       </c>
       <c r="M179" s="2" t="n">
-        <v>45410.72310799012</v>
+        <v>45413.10457070757</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
@@ -11915,16 +11915,16 @@
         <v>5825.267321094758</v>
       </c>
       <c r="Q179" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461882983</v>
       </c>
       <c r="R179" t="n">
-        <v>21.237099</v>
+        <v>4.157763</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.075092Z</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -11965,7 +11965,7 @@
         <v>94.5</v>
       </c>
       <c r="M180" s="2" t="n">
-        <v>45410.72310804801</v>
+        <v>45413.10457073072</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
@@ -11979,16 +11979,16 @@
         <v>5821.781258599514</v>
       </c>
       <c r="Q180" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461892468</v>
       </c>
       <c r="R180" t="n">
-        <v>21.232097</v>
+        <v>4.163958</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.261204Z</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -12029,7 +12029,7 @@
         <v>351.49</v>
       </c>
       <c r="M181" s="2" t="n">
-        <v>45410.72309927485</v>
+        <v>45413.10456351034</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -12043,16 +12043,16 @@
         <v>5604.096716650636</v>
       </c>
       <c r="Q181" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.1045979306</v>
       </c>
       <c r="R181" t="n">
-        <v>21.990098</v>
+        <v>2.973911</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.083104Z</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -12093,7 +12093,7 @@
         <v>81.47</v>
       </c>
       <c r="M182" s="2" t="n">
-        <v>45410.72310810587</v>
+        <v>45413.10457078868</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -12107,16 +12107,16 @@
         <v>5822.497465607691</v>
       </c>
       <c r="Q182" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461901741</v>
       </c>
       <c r="R182" t="n">
-        <v>21.227098</v>
+        <v>4.166962</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.091246Z</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -12157,7 +12157,7 @@
         <v>81.41</v>
       </c>
       <c r="M183" s="2" t="n">
-        <v>45410.72310814057</v>
+        <v>45413.10457081172</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -12171,16 +12171,16 @@
         <v>5823.505000741465</v>
       </c>
       <c r="Q183" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461911164</v>
       </c>
       <c r="R183" t="n">
-        <v>21.2241</v>
+        <v>4.173113</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.099456Z</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -12221,7 +12221,7 @@
         <v>79.83</v>
       </c>
       <c r="M184" s="2" t="n">
-        <v>45410.72310816374</v>
+        <v>45413.10457083488</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -12235,16 +12235,16 @@
         <v>5825.106518919682</v>
       </c>
       <c r="Q184" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461920666</v>
       </c>
       <c r="R184" t="n">
-        <v>21.222098</v>
+        <v>4.179322</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.107864Z</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -12285,7 +12285,7 @@
         <v>78.02</v>
       </c>
       <c r="M185" s="2" t="n">
-        <v>45410.7231081869</v>
+        <v>45413.10457085804</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -12299,16 +12299,16 @@
         <v>5828.450148096567</v>
       </c>
       <c r="Q185" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461930398</v>
       </c>
       <c r="R185" t="n">
-        <v>21.220097</v>
+        <v>4.18573</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.115986Z</t>
         </is>
       </c>
       <c r="B186" t="n">
@@ -12349,7 +12349,7 @@
         <v>34.86</v>
       </c>
       <c r="M186" s="2" t="n">
-        <v>45410.72310822161</v>
+        <v>45413.10457089276</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -12363,16 +12363,16 @@
         <v>5837.989175943289</v>
       </c>
       <c r="Q186" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461939799</v>
       </c>
       <c r="R186" t="n">
-        <v>21.217098</v>
+        <v>4.190852</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.124156Z</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -12413,7 +12413,7 @@
         <v>34.86</v>
       </c>
       <c r="M187" s="2" t="n">
-        <v>45410.72310825633</v>
+        <v>45413.10457091592</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -12427,16 +12427,16 @@
         <v>5850.784255869973</v>
       </c>
       <c r="Q187" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461949254</v>
       </c>
       <c r="R187" t="n">
-        <v>21.214098</v>
+        <v>4.197021</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.132330Z</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -12477,7 +12477,7 @@
         <v>34.86</v>
       </c>
       <c r="M188" s="2" t="n">
-        <v>45410.72310827949</v>
+        <v>45413.10457093905</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -12491,16 +12491,16 @@
         <v>5865.451742569587</v>
       </c>
       <c r="Q188" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461958715</v>
       </c>
       <c r="R188" t="n">
-        <v>21.212097</v>
+        <v>4.203196</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.140366Z</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -12541,7 +12541,7 @@
         <v>34.86</v>
       </c>
       <c r="M189" s="2" t="n">
-        <v>45410.72310830261</v>
+        <v>45413.1045709622</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -12555,16 +12555,16 @@
         <v>5881.814116268831</v>
       </c>
       <c r="Q189" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461968016</v>
       </c>
       <c r="R189" t="n">
-        <v>21.210099</v>
+        <v>4.209232</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.148272Z</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -12605,7 +12605,7 @@
         <v>34.32</v>
       </c>
       <c r="M190" s="2" t="n">
-        <v>45410.72310833735</v>
+        <v>45413.10457098534</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -12619,16 +12619,16 @@
         <v>5898.673593388196</v>
       </c>
       <c r="Q190" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461977166</v>
       </c>
       <c r="R190" t="n">
-        <v>21.207098</v>
+        <v>4.215139</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.156451Z</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -12669,7 +12669,7 @@
         <v>27.22</v>
       </c>
       <c r="M191" s="2" t="n">
-        <v>45410.72310836049</v>
+        <v>45413.10457100853</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -12683,16 +12683,16 @@
         <v>5916.320460098786</v>
       </c>
       <c r="Q191" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461986633</v>
       </c>
       <c r="R191" t="n">
-        <v>21.205099</v>
+        <v>4.221314</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.266909Z</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -12733,7 +12733,7 @@
         <v>347.28</v>
       </c>
       <c r="M192" s="2" t="n">
-        <v>45410.72309933278</v>
+        <v>45413.10456354539</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -12747,16 +12747,16 @@
         <v>5624.743216306892</v>
       </c>
       <c r="Q192" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10459799663</v>
       </c>
       <c r="R192" t="n">
-        <v>21.985093</v>
+        <v>2.976587</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.164133Z</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -12797,7 +12797,7 @@
         <v>33.57</v>
       </c>
       <c r="M193" s="2" t="n">
-        <v>45410.72310841836</v>
+        <v>45413.10457105481</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
@@ -12811,16 +12811,16 @@
         <v>5933.315652404332</v>
       </c>
       <c r="Q193" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10461995524</v>
       </c>
       <c r="R193" t="n">
-        <v>21.200099</v>
+        <v>4.224998</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.172390Z</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -12861,7 +12861,7 @@
         <v>21.2</v>
       </c>
       <c r="M194" s="2" t="n">
-        <v>45410.72310845306</v>
+        <v>45413.10457107794</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -12875,16 +12875,16 @@
         <v>5951.635359182827</v>
       </c>
       <c r="Q194" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10462005081</v>
       </c>
       <c r="R194" t="n">
-        <v>21.1971</v>
+        <v>4.231256</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.180456Z</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -12925,7 +12925,7 @@
         <v>16.26</v>
       </c>
       <c r="M195" s="2" t="n">
-        <v>45410.72310847622</v>
+        <v>45413.10457110109</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -12939,16 +12939,16 @@
         <v>5970.073576609007</v>
       </c>
       <c r="Q195" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10462014416</v>
       </c>
       <c r="R195" t="n">
-        <v>21.195099</v>
+        <v>4.237322</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.188785Z</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -12989,7 +12989,7 @@
         <v>16.26</v>
       </c>
       <c r="M196" s="2" t="n">
-        <v>45410.72310849938</v>
+        <v>45413.10457113582</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -13003,16 +13003,16 @@
         <v>5988.330141989287</v>
       </c>
       <c r="Q196" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10462024057</v>
       </c>
       <c r="R196" t="n">
-        <v>21.193099</v>
+        <v>4.24265</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.197163Z</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -13053,7 +13053,7 @@
         <v>16.26</v>
       </c>
       <c r="M197" s="2" t="n">
-        <v>45410.72310853426</v>
+        <v>45413.10457115897</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -13067,16 +13067,16 @@
         <v>6002.616603601435</v>
       </c>
       <c r="Q197" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10462033754</v>
       </c>
       <c r="R197" t="n">
-        <v>21.190085</v>
+        <v>4.249028</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.205489Z</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -13117,7 +13117,7 @@
         <v>20.12</v>
       </c>
       <c r="M198" s="2" t="n">
-        <v>45410.72310855723</v>
+        <v>45413.10457118209</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -13131,16 +13131,16 @@
         <v>6012.017496511417</v>
       </c>
       <c r="Q198" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.1046204339</v>
       </c>
       <c r="R198" t="n">
-        <v>21.1881</v>
+        <v>4.255356</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.213804Z</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -13181,7 +13181,7 @@
         <v>20.13</v>
       </c>
       <c r="M199" s="2" t="n">
-        <v>45410.723108592</v>
+        <v>45413.10457120526</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -13195,16 +13195,16 @@
         <v>6017.540932109064</v>
       </c>
       <c r="Q199" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10462053014</v>
       </c>
       <c r="R199" t="n">
-        <v>21.185096</v>
+        <v>4.26167</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.221851Z</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -13245,7 +13245,7 @@
         <v>20.14</v>
       </c>
       <c r="M200" s="2" t="n">
-        <v>45410.72310862669</v>
+        <v>45413.10457122848</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -13259,16 +13259,16 @@
         <v>6019.914371169227</v>
       </c>
       <c r="Q200" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10462062328</v>
       </c>
       <c r="R200" t="n">
-        <v>21.182099</v>
+        <v>4.267711</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.230213Z</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -13309,7 +13309,7 @@
         <v>20.14</v>
       </c>
       <c r="M201" s="2" t="n">
-        <v>45410.72310866141</v>
+        <v>45413.10457125155</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -13323,16 +13323,16 @@
         <v>6019.955628091897</v>
       </c>
       <c r="Q201" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10462072006</v>
       </c>
       <c r="R201" t="n">
-        <v>21.179099</v>
+        <v>4.274079</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.238512Z</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -13373,7 +13373,7 @@
         <v>20.14</v>
       </c>
       <c r="M202" s="2" t="n">
-        <v>45410.72310869619</v>
+        <v>45413.10457127469</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -13387,16 +13387,16 @@
         <v>6019.956559800029</v>
       </c>
       <c r="Q202" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10462081611</v>
       </c>
       <c r="R202" t="n">
-        <v>21.176094</v>
+        <v>4.280379</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.273255Z</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -13437,7 +13437,7 @@
         <v>347.41</v>
       </c>
       <c r="M203" s="2" t="n">
-        <v>45410.72309940215</v>
+        <v>45413.10456358425</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -13451,16 +13451,16 @@
         <v>5644.873096225243</v>
       </c>
       <c r="Q203" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10459807008</v>
       </c>
       <c r="R203" t="n">
-        <v>21.979099</v>
+        <v>2.979576</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.246917Z</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -13501,7 +13501,7 @@
         <v>20.14</v>
       </c>
       <c r="M204" s="2" t="n">
-        <v>45410.72310876564</v>
+        <v>45413.10457133213</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -13515,16 +13515,16 @@
         <v>6019.956798183249</v>
       </c>
       <c r="Q204" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10462091339</v>
       </c>
       <c r="R204" t="n">
-        <v>21.170094</v>
+        <v>4.283821</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.255431Z</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -13565,7 +13565,7 @@
         <v>20.14</v>
       </c>
       <c r="M205" s="2" t="n">
-        <v>45410.72310881196</v>
+        <v>45413.10457136729</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -13579,16 +13579,16 @@
         <v>6019.956798183249</v>
       </c>
       <c r="Q205" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10462101193</v>
       </c>
       <c r="R205" t="n">
-        <v>21.166092</v>
+        <v>4.289297</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.264563Z</t>
         </is>
       </c>
       <c r="B206" t="n">
@@ -13629,7 +13629,7 @@
         <v>20.14</v>
       </c>
       <c r="M206" s="2" t="n">
-        <v>45410.72310884661</v>
+        <v>45413.10457139049</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -13643,16 +13643,16 @@
         <v>6019.956798183249</v>
       </c>
       <c r="Q206" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10462111763</v>
       </c>
       <c r="R206" t="n">
-        <v>21.163098</v>
+        <v>4.296425</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.298557Z</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -13693,7 +13693,7 @@
         <v>20.14</v>
       </c>
       <c r="M207" s="2" t="n">
-        <v>45410.72310886976</v>
+        <v>45413.10457141359</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -13707,16 +13707,16 @@
         <v>6019.956798183249</v>
       </c>
       <c r="Q207" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10462151108</v>
       </c>
       <c r="R207" t="n">
-        <v>21.161098</v>
+        <v>4.328423</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.307142Z</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -13757,7 +13757,7 @@
         <v>20.14</v>
       </c>
       <c r="M208" s="2" t="n">
-        <v>45410.7231089045</v>
+        <v>45413.10457143683</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
@@ -13771,16 +13771,16 @@
         <v>6019.956798183249</v>
       </c>
       <c r="Q208" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10462161044</v>
       </c>
       <c r="R208" t="n">
-        <v>21.158096</v>
+        <v>4.335</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.317256Z</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -13821,7 +13821,7 @@
         <v>20.14</v>
       </c>
       <c r="M209" s="2" t="n">
-        <v>45410.72310892764</v>
+        <v>45413.10457145987</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
@@ -13835,16 +13835,16 @@
         <v>6019.956798183249</v>
       </c>
       <c r="Q209" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.1046217275</v>
       </c>
       <c r="R209" t="n">
-        <v>21.156097</v>
+        <v>4.343123</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.325473Z</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -13885,7 +13885,7 @@
         <v>20.14</v>
       </c>
       <c r="M210" s="2" t="n">
-        <v>45410.72310896237</v>
+        <v>45413.10457149459</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
@@ -13899,16 +13899,16 @@
         <v>6019.956798183249</v>
       </c>
       <c r="Q210" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.1046218226</v>
       </c>
       <c r="R210" t="n">
-        <v>21.153096</v>
+        <v>4.34834</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.333785Z</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -13949,7 +13949,7 @@
         <v>20.14</v>
       </c>
       <c r="M211" s="2" t="n">
-        <v>45410.72310899706</v>
+        <v>45413.10457151775</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
@@ -13963,16 +13963,16 @@
         <v>6019.956798183249</v>
       </c>
       <c r="Q211" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10462191881</v>
       </c>
       <c r="R211" t="n">
-        <v>21.150099</v>
+        <v>4.354651</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.341895Z</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -14013,7 +14013,7 @@
         <v>20.04</v>
       </c>
       <c r="M212" s="2" t="n">
-        <v>45410.72310903182</v>
+        <v>45413.10457154091</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
@@ -14027,16 +14027,16 @@
         <v>6022.070781397192</v>
       </c>
       <c r="Q212" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10462201267</v>
       </c>
       <c r="R212" t="n">
-        <v>21.147096</v>
+        <v>4.360761</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.350248Z</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -14077,7 +14077,7 @@
         <v>19.71</v>
       </c>
       <c r="M213" s="2" t="n">
-        <v>45410.72310905494</v>
+        <v>45413.10457156406</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
@@ -14091,16 +14091,16 @@
         <v>6025.714833121198</v>
       </c>
       <c r="Q213" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10462210935</v>
       </c>
       <c r="R213" t="n">
-        <v>21.145098</v>
+        <v>4.367113</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.279053Z</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -14141,7 +14141,7 @@
         <v>358.61</v>
       </c>
       <c r="M214" s="2" t="n">
-        <v>45410.72309944865</v>
+        <v>45413.10456363056</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
@@ -14155,16 +14155,16 @@
         <v>5663.95171013619</v>
       </c>
       <c r="Q214" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10459813719</v>
       </c>
       <c r="R214" t="n">
-        <v>21.975082</v>
+        <v>2.981372</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.358380Z</t>
         </is>
       </c>
       <c r="B215" t="n">
@@ -14205,7 +14205,7 @@
         <v>19.69</v>
       </c>
       <c r="M215" s="2" t="n">
-        <v>45410.72310910124</v>
+        <v>45413.10457161042</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
@@ -14219,16 +14219,16 @@
         <v>6030.992931264163</v>
       </c>
       <c r="Q215" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10462220347</v>
       </c>
       <c r="R215" t="n">
-        <v>21.141098</v>
+        <v>4.37124</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.367399Z</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -14269,7 +14269,7 @@
         <v>55.37</v>
       </c>
       <c r="M216" s="2" t="n">
-        <v>45410.72310913596</v>
+        <v>45413.10457163349</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
@@ -14283,16 +14283,16 @@
         <v>6033.771943888496</v>
       </c>
       <c r="Q216" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10462230786</v>
       </c>
       <c r="R216" t="n">
-        <v>21.138098</v>
+        <v>4.378265</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.376046Z</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -14333,7 +14333,7 @@
         <v>117.66</v>
       </c>
       <c r="M217" s="2" t="n">
-        <v>45410.72310915913</v>
+        <v>45413.10457165663</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
@@ -14347,16 +14347,16 @@
         <v>6031.623937960653</v>
       </c>
       <c r="Q217" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10462240794</v>
       </c>
       <c r="R217" t="n">
-        <v>21.136096</v>
+        <v>4.384913</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.384339Z</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -14397,7 +14397,7 @@
         <v>128.36</v>
       </c>
       <c r="M218" s="2" t="n">
-        <v>45410.72310919387</v>
+        <v>45413.10457170294</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
@@ -14411,16 +14411,16 @@
         <v>6027.690487849654</v>
       </c>
       <c r="Q218" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10462250392</v>
       </c>
       <c r="R218" t="n">
-        <v>21.133095</v>
+        <v>4.389205</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.392589Z</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -14461,7 +14461,7 @@
         <v>121.36</v>
       </c>
       <c r="M219" s="2" t="n">
-        <v>45410.72310922855</v>
+        <v>45413.10457172617</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
@@ -14475,16 +14475,16 @@
         <v>6023.269189501918</v>
       </c>
       <c r="Q219" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10462259941</v>
       </c>
       <c r="R219" t="n">
-        <v>21.130098</v>
+        <v>4.395448</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.400917Z</t>
         </is>
       </c>
       <c r="B220" t="n">
@@ -14525,7 +14525,7 @@
         <v>119.4</v>
       </c>
       <c r="M220" s="2" t="n">
-        <v>45410.72310925174</v>
+        <v>45413.10457174924</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
@@ -14539,16 +14539,16 @@
         <v>6018.243505464607</v>
       </c>
       <c r="Q220" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.1046226958</v>
       </c>
       <c r="R220" t="n">
-        <v>21.128095</v>
+        <v>4.401783</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.409305Z</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -14589,7 +14589,7 @@
         <v>119.39</v>
       </c>
       <c r="M221" s="2" t="n">
-        <v>45410.72310927485</v>
+        <v>45413.10457177238</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -14603,16 +14603,16 @@
         <v>6012.252933891317</v>
       </c>
       <c r="Q221" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10462279288</v>
       </c>
       <c r="R221" t="n">
-        <v>21.126098</v>
+        <v>4.408171</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.417475Z</t>
         </is>
       </c>
       <c r="B222" t="n">
@@ -14653,7 +14653,7 @@
         <v>120.36</v>
       </c>
       <c r="M222" s="2" t="n">
-        <v>45410.72310929799</v>
+        <v>45413.10457179553</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
@@ -14667,16 +14667,16 @@
         <v>6005.331782364307</v>
       </c>
       <c r="Q222" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10462288744</v>
       </c>
       <c r="R222" t="n">
-        <v>21.124099</v>
+        <v>4.414341</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.425599Z</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -14717,7 +14717,7 @@
         <v>120.36</v>
       </c>
       <c r="M223" s="2" t="n">
-        <v>45410.72310933272</v>
+        <v>45413.10457181868</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
@@ -14731,16 +14731,16 @@
         <v>5998.535459262595</v>
       </c>
       <c r="Q223" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10462298147</v>
       </c>
       <c r="R223" t="n">
-        <v>21.121098</v>
+        <v>4.420465</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.433617Z</t>
         </is>
       </c>
       <c r="B224" t="n">
@@ -14781,7 +14781,7 @@
         <v>120.36</v>
       </c>
       <c r="M224" s="2" t="n">
-        <v>45410.72310937905</v>
+        <v>45413.10457184184</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -14795,16 +14795,16 @@
         <v>5991.141911019295</v>
       </c>
       <c r="Q224" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10462307427</v>
       </c>
       <c r="R224" t="n">
-        <v>21.117095</v>
+        <v>4.426482</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.128193Z</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -14845,7 +14845,7 @@
         <v>193.69</v>
       </c>
       <c r="M225" s="2" t="n">
-        <v>45410.723098129</v>
+        <v>45413.104562472</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
@@ -14859,16 +14859,16 @@
         <v>5339.877028325714</v>
       </c>
       <c r="Q225" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10459639112</v>
       </c>
       <c r="R225" t="n">
-        <v>22.089099</v>
+        <v>2.930612</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.285285Z</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -14909,7 +14909,7 @@
         <v>331.54</v>
       </c>
       <c r="M226" s="2" t="n">
-        <v>45410.72309950638</v>
+        <v>45413.10456368844</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
@@ -14923,16 +14923,16 @@
         <v>5678.859983043835</v>
       </c>
       <c r="Q226" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10459820932</v>
       </c>
       <c r="R226" t="n">
-        <v>21.970094</v>
+        <v>2.982604</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.441481Z</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -14973,7 +14973,7 @@
         <v>120.36</v>
       </c>
       <c r="M227" s="2" t="n">
-        <v>45410.72310942531</v>
+        <v>45413.10457188814</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
@@ -14987,16 +14987,16 @@
         <v>5983.866243133662</v>
       </c>
       <c r="Q227" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10462316529</v>
       </c>
       <c r="R227" t="n">
-        <v>21.113098</v>
+        <v>4.430346</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.449355Z</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -15037,7 +15037,7 @@
         <v>120.36</v>
       </c>
       <c r="M228" s="2" t="n">
-        <v>45410.72310946004</v>
+        <v>45413.10457192285</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -15051,16 +15051,16 @@
         <v>5976.831520788425</v>
       </c>
       <c r="Q228" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10462325643</v>
       </c>
       <c r="R228" t="n">
-        <v>21.110098</v>
+        <v>4.435221</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.457571Z</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -15101,7 +15101,7 @@
         <v>120.36</v>
       </c>
       <c r="M229" s="2" t="n">
-        <v>45410.72310948317</v>
+        <v>45413.10457194601</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -15115,16 +15115,16 @@
         <v>5969.570132048355</v>
       </c>
       <c r="Q229" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10462335152</v>
       </c>
       <c r="R229" t="n">
-        <v>21.108099</v>
+        <v>4.441436</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.465397Z</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -15165,7 +15165,7 @@
         <v>120.16</v>
       </c>
       <c r="M230" s="2" t="n">
-        <v>45410.72310950632</v>
+        <v>45413.10457196915</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
@@ -15179,16 +15179,16 @@
         <v>5962.157476729875</v>
       </c>
       <c r="Q230" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10462344209</v>
       </c>
       <c r="R230" t="n">
-        <v>21.106099</v>
+        <v>4.447262</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.473421Z</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -15229,7 +15229,7 @@
         <v>120.16</v>
       </c>
       <c r="M231" s="2" t="n">
-        <v>45410.72310952948</v>
+        <v>45413.10457199229</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -15243,16 +15243,16 @@
         <v>5954.898817498685</v>
       </c>
       <c r="Q231" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10462353496</v>
       </c>
       <c r="R231" t="n">
-        <v>21.104098</v>
+        <v>4.453287</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.481078Z</t>
         </is>
       </c>
       <c r="B232" t="n">
@@ -15293,7 +15293,7 @@
         <v>120.16</v>
       </c>
       <c r="M232" s="2" t="n">
-        <v>45410.72310956437</v>
+        <v>45413.10457201544</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
@@ -15307,16 +15307,16 @@
         <v>5947.754758188005</v>
       </c>
       <c r="Q232" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10462362359</v>
       </c>
       <c r="R232" t="n">
-        <v>21.101084</v>
+        <v>4.458944</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.488882Z</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -15357,7 +15357,7 @@
         <v>120.16</v>
       </c>
       <c r="M233" s="2" t="n">
-        <v>45410.72310959891</v>
+        <v>45413.10457203865</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
@@ -15371,16 +15371,16 @@
         <v>5940.850773542203</v>
       </c>
       <c r="Q233" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10462371391</v>
       </c>
       <c r="R233" t="n">
-        <v>21.098099</v>
+        <v>4.464743</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.497428Z</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -15421,7 +15421,7 @@
         <v>120.16</v>
       </c>
       <c r="M234" s="2" t="n">
-        <v>45410.72310962206</v>
+        <v>45413.10457206173</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -15435,16 +15435,16 @@
         <v>5934.057752312239</v>
       </c>
       <c r="Q234" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10462381283</v>
       </c>
       <c r="R234" t="n">
-        <v>21.096099</v>
+        <v>4.471295</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.505417Z</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -15485,7 +15485,7 @@
         <v>119.37</v>
       </c>
       <c r="M235" s="2" t="n">
-        <v>45410.72310964525</v>
+        <v>45413.10457208487</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -15499,16 +15499,16 @@
         <v>5927.199378766772</v>
       </c>
       <c r="Q235" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10462390529</v>
       </c>
       <c r="R235" t="n">
-        <v>21.094096</v>
+        <v>4.477284</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.513336Z</t>
         </is>
       </c>
       <c r="B236" t="n">
@@ -15549,7 +15549,7 @@
         <v>118.67</v>
       </c>
       <c r="M236" s="2" t="n">
-        <v>45410.72310966838</v>
+        <v>45413.10457211962</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
@@ -15563,16 +15563,16 @@
         <v>5920.334272794148</v>
       </c>
       <c r="Q236" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10462399694</v>
       </c>
       <c r="R236" t="n">
-        <v>21.092097</v>
+        <v>4.482201</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.290973Z</t>
         </is>
       </c>
       <c r="B237" t="n">
@@ -15613,7 +15613,7 @@
         <v>343.03</v>
       </c>
       <c r="M237" s="2" t="n">
-        <v>45410.72309957581</v>
+        <v>45413.10456373472</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -15627,16 +15627,16 @@
         <v>5689.985037709088</v>
       </c>
       <c r="Q237" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10459827515</v>
       </c>
       <c r="R237" t="n">
-        <v>21.964095</v>
+        <v>2.984293</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.522035Z</t>
         </is>
       </c>
       <c r="B238" t="n">
@@ -15677,7 +15677,7 @@
         <v>118.67</v>
       </c>
       <c r="M238" s="2" t="n">
-        <v>45410.72310971467</v>
+        <v>45413.10457216561</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -15691,16 +15691,16 @@
         <v>5913.513883750553</v>
       </c>
       <c r="Q238" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10462409763</v>
       </c>
       <c r="R238" t="n">
-        <v>21.088097</v>
+        <v>4.486926</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.529995Z</t>
         </is>
       </c>
       <c r="B239" t="n">
@@ -15741,7 +15741,7 @@
         <v>118.18</v>
       </c>
       <c r="M239" s="2" t="n">
-        <v>45410.72310976096</v>
+        <v>45413.10457218905</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -15755,16 +15755,16 @@
         <v>5906.963736914081</v>
       </c>
       <c r="Q239" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10462418976</v>
       </c>
       <c r="R239" t="n">
-        <v>21.084098</v>
+        <v>4.492861</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.537775Z</t>
         </is>
       </c>
       <c r="B240" t="n">
@@ -15805,7 +15805,7 @@
         <v>117.21</v>
       </c>
       <c r="M240" s="2" t="n">
-        <v>45410.7231097841</v>
+        <v>45413.10457221219</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -15819,16 +15819,16 @@
         <v>5900.349962250264</v>
       </c>
       <c r="Q240" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.1046242798</v>
       </c>
       <c r="R240" t="n">
-        <v>21.082099</v>
+        <v>4.498642</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.545721Z</t>
         </is>
       </c>
       <c r="B241" t="n">
@@ -15869,7 +15869,7 @@
         <v>117.2</v>
       </c>
       <c r="M241" s="2" t="n">
-        <v>45410.72310981883</v>
+        <v>45413.10457223534</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -15883,16 +15883,16 @@
         <v>5893.769176422419</v>
       </c>
       <c r="Q241" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10462437177</v>
       </c>
       <c r="R241" t="n">
-        <v>21.079098</v>
+        <v>4.504587</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.578149Z</t>
         </is>
       </c>
       <c r="B242" t="n">
@@ -15933,7 +15933,7 @@
         <v>117.27</v>
       </c>
       <c r="M242" s="2" t="n">
-        <v>45410.72310984198</v>
+        <v>45413.10457227008</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -15947,16 +15947,16 @@
         <v>5887.43559534261</v>
       </c>
       <c r="Q242" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10462474709</v>
       </c>
       <c r="R242" t="n">
-        <v>21.077098</v>
+        <v>4.534014</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.589457Z</t>
         </is>
       </c>
       <c r="B243" t="n">
@@ -15997,7 +15997,7 @@
         <v>117.27</v>
       </c>
       <c r="M243" s="2" t="n">
-        <v>45410.72310986512</v>
+        <v>45413.10457229322</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
@@ -16011,16 +16011,16 @@
         <v>5881.236126278431</v>
       </c>
       <c r="Q243" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10462487797</v>
       </c>
       <c r="R243" t="n">
-        <v>21.075099</v>
+        <v>4.543323</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.598315Z</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -16061,7 +16061,7 @@
         <v>117.27</v>
       </c>
       <c r="M244" s="2" t="n">
-        <v>45410.72310988826</v>
+        <v>45413.10457231636</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -16075,16 +16075,16 @@
         <v>5874.977694211369</v>
       </c>
       <c r="Q244" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.1046249805</v>
       </c>
       <c r="R244" t="n">
-        <v>21.073099</v>
+        <v>4.550182</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.607042Z</t>
         </is>
       </c>
       <c r="B245" t="n">
@@ -16125,7 +16125,7 @@
         <v>117.27</v>
       </c>
       <c r="M245" s="2" t="n">
-        <v>45410.72310995783</v>
+        <v>45413.10457233956</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -16139,16 +16139,16 @@
         <v>5868.678225239284</v>
       </c>
       <c r="Q245" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10462508151</v>
       </c>
       <c r="R245" t="n">
-        <v>21.067088</v>
+        <v>4.556904</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.615105Z</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -16189,7 +16189,7 @@
         <v>117.27</v>
       </c>
       <c r="M246" s="2" t="n">
-        <v>45410.72310998089</v>
+        <v>45413.10457236266</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -16203,16 +16203,16 @@
         <v>5863.199825719516</v>
       </c>
       <c r="Q246" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10462517483</v>
       </c>
       <c r="R246" t="n">
-        <v>21.065096</v>
+        <v>4.562971</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.623360Z</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -16253,7 +16253,7 @@
         <v>117.27</v>
       </c>
       <c r="M247" s="2" t="n">
-        <v>45410.72311000403</v>
+        <v>45413.1045723858</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
@@ -16267,16 +16267,16 @@
         <v>5859.553490417215</v>
       </c>
       <c r="Q247" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10462527037</v>
       </c>
       <c r="R247" t="n">
-        <v>21.063097</v>
+        <v>4.569227</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.296502Z</t>
         </is>
       </c>
       <c r="B248" t="n">
@@ -16317,7 +16317,7 @@
         <v>343.03</v>
       </c>
       <c r="M248" s="2" t="n">
-        <v>45410.72309963366</v>
+        <v>45413.10456378103</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
@@ -16331,16 +16331,16 @@
         <v>5698.165746410047</v>
       </c>
       <c r="Q248" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10459833915</v>
       </c>
       <c r="R248" t="n">
-        <v>21.959097</v>
+        <v>2.985821</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.631849Z</t>
         </is>
       </c>
       <c r="B249" t="n">
@@ -16381,7 +16381,7 @@
         <v>124.04</v>
       </c>
       <c r="M249" s="2" t="n">
-        <v>45410.7231100619</v>
+        <v>45413.10457243212</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
@@ -16395,16 +16395,16 @@
         <v>5854.624567523033</v>
       </c>
       <c r="Q249" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10462536862</v>
       </c>
       <c r="R249" t="n">
-        <v>21.058097</v>
+        <v>4.573714</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.640775Z</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -16445,7 +16445,7 @@
         <v>131.87</v>
       </c>
       <c r="M250" s="2" t="n">
-        <v>45410.72311008503</v>
+        <v>45413.10457245525</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -16459,16 +16459,16 @@
         <v>5850.957192698158</v>
       </c>
       <c r="Q250" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10462547193</v>
       </c>
       <c r="R250" t="n">
-        <v>21.056099</v>
+        <v>4.580641</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.649132Z</t>
         </is>
       </c>
       <c r="B251" t="n">
@@ -16509,7 +16509,7 @@
         <v>162.94</v>
       </c>
       <c r="M251" s="2" t="n">
-        <v>45410.72311011996</v>
+        <v>45413.10457247839</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
@@ -16523,16 +16523,16 @@
         <v>5844.016411417974</v>
       </c>
       <c r="Q251" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10462556866</v>
       </c>
       <c r="R251" t="n">
-        <v>21.05308</v>
+        <v>4.586999</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.657582Z</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -16573,7 +16573,7 @@
         <v>203.23</v>
       </c>
       <c r="M252" s="2" t="n">
-        <v>45410.7231101545</v>
+        <v>45413.10457250154</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
@@ -16587,16 +16587,16 @@
         <v>5834.908638797619</v>
       </c>
       <c r="Q252" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10462566646</v>
       </c>
       <c r="R252" t="n">
-        <v>21.050096</v>
+        <v>4.593449</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.666590Z</t>
         </is>
       </c>
       <c r="B253" t="n">
@@ -16637,7 +16637,7 @@
         <v>210.24</v>
       </c>
       <c r="M253" s="2" t="n">
-        <v>45410.72311017765</v>
+        <v>45413.10457252469</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -16651,16 +16651,16 @@
         <v>5825.510291586094</v>
       </c>
       <c r="Q253" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10462577072</v>
       </c>
       <c r="R253" t="n">
-        <v>21.048096</v>
+        <v>4.600457</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.674647Z</t>
         </is>
       </c>
       <c r="B254" t="n">
@@ -16701,7 +16701,7 @@
         <v>210.24</v>
       </c>
       <c r="M254" s="2" t="n">
-        <v>45410.72311021238</v>
+        <v>45413.10457254785</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -16715,16 +16715,16 @@
         <v>5814.990701803544</v>
       </c>
       <c r="Q254" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10462586397</v>
       </c>
       <c r="R254" t="n">
-        <v>21.045095</v>
+        <v>4.606513</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.683122Z</t>
         </is>
       </c>
       <c r="B255" t="n">
@@ -16765,7 +16765,7 @@
         <v>210.24</v>
       </c>
       <c r="M255" s="2" t="n">
-        <v>45410.72311024706</v>
+        <v>45413.10457257112</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
@@ -16779,16 +16779,16 @@
         <v>5802.679196209226</v>
       </c>
       <c r="Q255" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10462596206</v>
       </c>
       <c r="R255" t="n">
-        <v>21.042099</v>
+        <v>4.612977</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.691046Z</t>
         </is>
       </c>
       <c r="B256" t="n">
@@ -16829,7 +16829,7 @@
         <v>210.24</v>
       </c>
       <c r="M256" s="2" t="n">
-        <v>45410.72311027024</v>
+        <v>45413.10457259413</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -16843,16 +16843,16 @@
         <v>5791.042966007431</v>
       </c>
       <c r="Q256" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10462605377</v>
       </c>
       <c r="R256" t="n">
-        <v>21.040096</v>
+        <v>4.618913</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.699012Z</t>
         </is>
       </c>
       <c r="B257" t="n">
@@ -16893,7 +16893,7 @@
         <v>209.99</v>
       </c>
       <c r="M257" s="2" t="n">
-        <v>45410.72311030498</v>
+        <v>45413.10457262886</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
@@ -16907,16 +16907,16 @@
         <v>5779.341834789512</v>
       </c>
       <c r="Q257" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10462614597</v>
       </c>
       <c r="R257" t="n">
-        <v>21.037095</v>
+        <v>4.623879</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.707345Z</t>
         </is>
       </c>
       <c r="B258" t="n">
@@ -16957,7 +16957,7 @@
         <v>194.05</v>
       </c>
       <c r="M258" s="2" t="n">
-        <v>45410.72311033968</v>
+        <v>45413.104572652</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
@@ -16971,16 +16971,16 @@
         <v>5765.490210653924</v>
       </c>
       <c r="Q258" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10462624242</v>
       </c>
       <c r="R258" t="n">
-        <v>21.034097</v>
+        <v>4.630212</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.302566Z</t>
         </is>
       </c>
       <c r="B259" t="n">
@@ -17021,7 +17021,7 @@
         <v>343.03</v>
       </c>
       <c r="M259" s="2" t="n">
-        <v>45410.72309968</v>
+        <v>45413.10456381575</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
@@ -17035,16 +17035,16 @@
         <v>5702.215394588929</v>
       </c>
       <c r="Q259" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10459840933</v>
       </c>
       <c r="R259" t="n">
-        <v>21.955093</v>
+        <v>2.988885</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.715360Z</t>
         </is>
       </c>
       <c r="B260" t="n">
@@ -17085,7 +17085,7 @@
         <v>188.48</v>
       </c>
       <c r="M260" s="2" t="n">
-        <v>45410.72311039754</v>
+        <v>45413.10457268682</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
@@ -17099,16 +17099,16 @@
         <v>5751.89949023886</v>
       </c>
       <c r="Q260" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10462633518</v>
       </c>
       <c r="R260" t="n">
-        <v>21.029098</v>
+        <v>4.635219</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.723428Z</t>
         </is>
       </c>
       <c r="B261" t="n">
@@ -17149,7 +17149,7 @@
         <v>185.13</v>
       </c>
       <c r="M261" s="2" t="n">
-        <v>45410.72311042067</v>
+        <v>45413.10457272146</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
@@ -17163,16 +17163,16 @@
         <v>5737.492866313457</v>
       </c>
       <c r="Q261" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10462642856</v>
       </c>
       <c r="R261" t="n">
-        <v>21.027099</v>
+        <v>4.640294</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.731815Z</t>
         </is>
       </c>
       <c r="B262" t="n">
@@ -17213,7 +17213,7 @@
         <v>180.26</v>
       </c>
       <c r="M262" s="2" t="n">
-        <v>45410.72311045539</v>
+        <v>45413.1045727446</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -17227,16 +17227,16 @@
         <v>5723.347754698383</v>
       </c>
       <c r="Q262" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10462652564</v>
       </c>
       <c r="R262" t="n">
-        <v>21.024099</v>
+        <v>4.646681</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:39.740293Z</t>
         </is>
       </c>
       <c r="B263" t="n">
@@ -17277,7 +17277,7 @@
         <v>173.31</v>
       </c>
       <c r="M263" s="2" t="n">
-        <v>45410.72311047854</v>
+        <v>45413.10457276776</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -17291,16 +17291,16 @@
         <v>5709.289265618433</v>
       </c>
       <c r="Q263" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10462662376</v>
       </c>
       <c r="R263" t="n">
-        <v>21.022099</v>
+        <v>4.653158</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.308301Z</t>
         </is>
       </c>
       <c r="B264" t="n">
@@ -17341,7 +17341,7 @@
         <v>343.03</v>
       </c>
       <c r="M264" s="2" t="n">
-        <v>45410.72309973784</v>
+        <v>45413.10456386209</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -17355,16 +17355,16 @@
         <v>5702.644190824068</v>
       </c>
       <c r="Q264" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10459847571</v>
       </c>
       <c r="R264" t="n">
-        <v>21.950096</v>
+        <v>2.990617</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.314162Z</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -17405,7 +17405,7 @@
         <v>343.03</v>
       </c>
       <c r="M265" s="2" t="n">
-        <v>45410.72309979568</v>
+        <v>45413.10456389681</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -17419,16 +17419,16 @@
         <v>5702.761642637083</v>
       </c>
       <c r="Q265" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10459854354</v>
       </c>
       <c r="R265" t="n">
-        <v>21.945098</v>
+        <v>2.993478</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.320066Z</t>
         </is>
       </c>
       <c r="B266" t="n">
@@ -17469,7 +17469,7 @@
         <v>343.03</v>
       </c>
       <c r="M266" s="2" t="n">
-        <v>45410.72309984195</v>
+        <v>45413.10456393149</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -17483,16 +17483,16 @@
         <v>5702.764657574206</v>
       </c>
       <c r="Q266" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10459861188</v>
       </c>
       <c r="R266" t="n">
-        <v>21.9411</v>
+        <v>2.996385</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.326365Z</t>
         </is>
       </c>
       <c r="B267" t="n">
@@ -17533,7 +17533,7 @@
         <v>343.03</v>
       </c>
       <c r="M267" s="2" t="n">
-        <v>45410.72309988829</v>
+        <v>45413.10456398936</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -17547,16 +17547,16 @@
         <v>5702.766065846657</v>
       </c>
       <c r="Q267" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10459868478</v>
       </c>
       <c r="R267" t="n">
-        <v>21.937097</v>
+        <v>2.997684</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.332272Z</t>
         </is>
       </c>
       <c r="B268" t="n">
@@ -17597,7 +17597,7 @@
         <v>343.03</v>
       </c>
       <c r="M268" s="2" t="n">
-        <v>45410.72309993462</v>
+        <v>45413.10456403567</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -17611,16 +17611,16 @@
         <v>5702.766245382842</v>
       </c>
       <c r="Q268" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10459875315</v>
       </c>
       <c r="R268" t="n">
-        <v>21.933094</v>
+        <v>2.99959</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.338340Z</t>
         </is>
       </c>
       <c r="B269" t="n">
@@ -17661,7 +17661,7 @@
         <v>343.03</v>
       </c>
       <c r="M269" s="2" t="n">
-        <v>45410.72309996933</v>
+        <v>45413.1045640704</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -17675,16 +17675,16 @@
         <v>5702.766407464244</v>
       </c>
       <c r="Q269" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10459882338</v>
       </c>
       <c r="R269" t="n">
-        <v>21.930095</v>
+        <v>3.002657</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.133542Z</t>
         </is>
       </c>
       <c r="B270" t="n">
@@ -17725,7 +17725,7 @@
         <v>193.52</v>
       </c>
       <c r="M270" s="2" t="n">
-        <v>45410.72309817544</v>
+        <v>45413.10456252984</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -17739,16 +17739,16 @@
         <v>5332.583337054286</v>
       </c>
       <c r="Q270" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10459645303</v>
       </c>
       <c r="R270" t="n">
-        <v>22.085087</v>
+        <v>2.930964</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.344199Z</t>
         </is>
       </c>
       <c r="B271" t="n">
@@ -17789,7 +17789,7 @@
         <v>343.03</v>
       </c>
       <c r="M271" s="2" t="n">
-        <v>45410.72310002716</v>
+        <v>45413.10456414101</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -17803,16 +17803,16 @@
         <v>5702.766407464244</v>
       </c>
       <c r="Q271" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10459889119</v>
       </c>
       <c r="R271" t="n">
-        <v>21.925098</v>
+        <v>3.002416</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.350243Z</t>
         </is>
       </c>
       <c r="B272" t="n">
@@ -17853,7 +17853,7 @@
         <v>343.03</v>
       </c>
       <c r="M272" s="2" t="n">
-        <v>45410.72310007348</v>
+        <v>45413.1045641875</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -17867,16 +17867,16 @@
         <v>5702.766407464244</v>
       </c>
       <c r="Q272" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10459896114</v>
       </c>
       <c r="R272" t="n">
-        <v>21.921097</v>
+        <v>3.004443</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.356145Z</t>
         </is>
       </c>
       <c r="B273" t="n">
@@ -17917,7 +17917,7 @@
         <v>343.03</v>
       </c>
       <c r="M273" s="2" t="n">
-        <v>45410.72310010828</v>
+        <v>45413.1045642285</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -17931,16 +17931,16 @@
         <v>5702.766407464244</v>
       </c>
       <c r="Q273" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10459902946</v>
       </c>
       <c r="R273" t="n">
-        <v>21.918089</v>
+        <v>3.006803</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.362912Z</t>
         </is>
       </c>
       <c r="B274" t="n">
@@ -17981,7 +17981,7 @@
         <v>343.03</v>
       </c>
       <c r="M274" s="2" t="n">
-        <v>45410.7231001429</v>
+        <v>45413.1045642581</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -17995,16 +17995,16 @@
         <v>5702.766407464244</v>
       </c>
       <c r="Q274" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10459910778</v>
       </c>
       <c r="R274" t="n">
-        <v>21.915098</v>
+        <v>3.011012</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.371414Z</t>
         </is>
       </c>
       <c r="B275" t="n">
@@ -18045,7 +18045,7 @@
         <v>343.03</v>
       </c>
       <c r="M275" s="2" t="n">
-        <v>45410.72310017762</v>
+        <v>45413.10456430442</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
@@ -18059,16 +18059,16 @@
         <v>5702.766407464244</v>
       </c>
       <c r="Q275" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10459920618</v>
       </c>
       <c r="R275" t="n">
-        <v>21.912099</v>
+        <v>3.015512</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.377796Z</t>
         </is>
       </c>
       <c r="B276" t="n">
@@ -18109,7 +18109,7 @@
         <v>343.03</v>
       </c>
       <c r="M276" s="2" t="n">
-        <v>45410.72310021236</v>
+        <v>45413.10456435068</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
@@ -18123,16 +18123,16 @@
         <v>5702.766407464244</v>
       </c>
       <c r="Q276" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10459928004</v>
       </c>
       <c r="R276" t="n">
-        <v>21.909097</v>
+        <v>3.017897</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.383774Z</t>
         </is>
       </c>
       <c r="B277" t="n">
@@ -18173,7 +18173,7 @@
         <v>343.03</v>
       </c>
       <c r="M277" s="2" t="n">
-        <v>45410.72310025887</v>
+        <v>45413.10456439693</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -18187,16 +18187,16 @@
         <v>5702.766407464244</v>
       </c>
       <c r="Q277" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10459934924</v>
       </c>
       <c r="R277" t="n">
-        <v>21.905079</v>
+        <v>3.019879</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.389744Z</t>
         </is>
       </c>
       <c r="B278" t="n">
@@ -18237,7 +18237,7 @@
         <v>343.03</v>
       </c>
       <c r="M278" s="2" t="n">
-        <v>45410.72310029338</v>
+        <v>45413.10456444324</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -18251,16 +18251,16 @@
         <v>5702.766407464244</v>
       </c>
       <c r="Q278" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10459941834</v>
       </c>
       <c r="R278" t="n">
-        <v>21.902097</v>
+        <v>3.021848</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.395906Z</t>
         </is>
       </c>
       <c r="B279" t="n">
@@ -18301,7 +18301,7 @@
         <v>343.03</v>
       </c>
       <c r="M279" s="2" t="n">
-        <v>45410.72310035125</v>
+        <v>45413.10456447842</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -18315,16 +18315,16 @@
         <v>5702.766407464244</v>
       </c>
       <c r="Q279" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10459948966</v>
       </c>
       <c r="R279" t="n">
-        <v>21.897097</v>
+        <v>3.02497</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.402046Z</t>
         </is>
       </c>
       <c r="B280" t="n">
@@ -18365,7 +18365,7 @@
         <v>343.03</v>
       </c>
       <c r="M280" s="2" t="n">
-        <v>45410.72310037437</v>
+        <v>45413.10456452558</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
@@ -18379,16 +18379,16 @@
         <v>5702.766407464244</v>
       </c>
       <c r="Q280" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10459956072</v>
       </c>
       <c r="R280" t="n">
-        <v>21.895099</v>
+        <v>3.027036</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.139528Z</t>
         </is>
       </c>
       <c r="B281" t="n">
@@ -18429,7 +18429,7 @@
         <v>193.52</v>
       </c>
       <c r="M281" s="2" t="n">
-        <v>45410.72309822162</v>
+        <v>45413.10456258056</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -18443,16 +18443,16 @@
         <v>5322.87855026111</v>
       </c>
       <c r="Q281" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10459652232</v>
       </c>
       <c r="R281" t="n">
-        <v>22.081097</v>
+        <v>2.932567</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.407891Z</t>
         </is>
       </c>
       <c r="B282" t="n">
@@ -18493,7 +18493,7 @@
         <v>343.03</v>
       </c>
       <c r="M282" s="2" t="n">
-        <v>45410.72310044384</v>
+        <v>45413.10456458465</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
@@ -18507,16 +18507,16 @@
         <v>5702.766407464244</v>
       </c>
       <c r="Q282" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10459962836</v>
       </c>
       <c r="R282" t="n">
-        <v>21.889097</v>
+        <v>3.027777</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.413955Z</t>
         </is>
       </c>
       <c r="B283" t="n">
@@ -18557,7 +18557,7 @@
         <v>343.03</v>
       </c>
       <c r="M283" s="2" t="n">
-        <v>45410.72310047855</v>
+        <v>45413.1045646238</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -18571,16 +18571,16 @@
         <v>5702.766407464244</v>
       </c>
       <c r="Q283" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10459969856</v>
       </c>
       <c r="R283" t="n">
-        <v>21.886098</v>
+        <v>3.030459</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.419826Z</t>
         </is>
       </c>
       <c r="B284" t="n">
@@ -18621,7 +18621,7 @@
         <v>343.03</v>
       </c>
       <c r="M284" s="2" t="n">
-        <v>45410.72310051328</v>
+        <v>45413.10456465858</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -18635,16 +18635,16 @@
         <v>5702.766407464244</v>
       </c>
       <c r="Q284" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10459976651</v>
       </c>
       <c r="R284" t="n">
-        <v>21.883098</v>
+        <v>3.033324</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.426669Z</t>
         </is>
       </c>
       <c r="B285" t="n">
@@ -18685,7 +18685,7 @@
         <v>343.03</v>
       </c>
       <c r="M285" s="2" t="n">
-        <v>45410.72310054804</v>
+        <v>45413.10456470478</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -18699,16 +18699,16 @@
         <v>5702.766407464244</v>
       </c>
       <c r="Q285" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.1045998457</v>
       </c>
       <c r="R285" t="n">
-        <v>21.880095</v>
+        <v>3.036176</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.433030Z</t>
         </is>
       </c>
       <c r="B286" t="n">
@@ -18749,7 +18749,7 @@
         <v>343.03</v>
       </c>
       <c r="M286" s="2" t="n">
-        <v>45410.72310058272</v>
+        <v>45413.10456473951</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -18763,16 +18763,16 @@
         <v>5702.766407464244</v>
       </c>
       <c r="Q286" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10459991933</v>
       </c>
       <c r="R286" t="n">
-        <v>21.877098</v>
+        <v>3.039536</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.439410Z</t>
         </is>
       </c>
       <c r="B287" t="n">
@@ -18813,7 +18813,7 @@
         <v>343.03</v>
       </c>
       <c r="M287" s="2" t="n">
-        <v>45410.72310062903</v>
+        <v>45413.10456477427</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
@@ -18827,16 +18827,16 @@
         <v>5702.766407464244</v>
       </c>
       <c r="Q287" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10459999317</v>
       </c>
       <c r="R287" t="n">
-        <v>21.873097</v>
+        <v>3.042913</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.445904Z</t>
         </is>
       </c>
       <c r="B288" t="n">
@@ -18877,7 +18877,7 @@
         <v>343.03</v>
       </c>
       <c r="M288" s="2" t="n">
-        <v>45410.72310066391</v>
+        <v>45413.10456482052</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
@@ -18891,16 +18891,16 @@
         <v>5702.766407464244</v>
       </c>
       <c r="Q288" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460006833</v>
       </c>
       <c r="R288" t="n">
-        <v>21.870083</v>
+        <v>3.045411</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.452236Z</t>
         </is>
       </c>
       <c r="B289" t="n">
@@ -18941,7 +18941,7 @@
         <v>343.03</v>
       </c>
       <c r="M289" s="2" t="n">
-        <v>45410.72310071003</v>
+        <v>45413.10456485528</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
@@ -18955,16 +18955,16 @@
         <v>5702.766407464244</v>
       </c>
       <c r="Q289" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460014162</v>
       </c>
       <c r="R289" t="n">
-        <v>21.866098</v>
+        <v>3.04874</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.458278Z</t>
         </is>
       </c>
       <c r="B290" t="n">
@@ -19005,7 +19005,7 @@
         <v>343.03</v>
       </c>
       <c r="M290" s="2" t="n">
-        <v>45410.72310074493</v>
+        <v>45413.10456490157</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
@@ -19019,16 +19019,16 @@
         <v>5702.766407464244</v>
       </c>
       <c r="Q290" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460021155</v>
       </c>
       <c r="R290" t="n">
-        <v>21.863083</v>
+        <v>3.050782</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.464244Z</t>
         </is>
       </c>
       <c r="B291" t="n">
@@ -19069,7 +19069,7 @@
         <v>343.03</v>
       </c>
       <c r="M291" s="2" t="n">
-        <v>45410.72310077949</v>
+        <v>45413.10456493629</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
@@ -19083,16 +19083,16 @@
         <v>5702.766407464244</v>
       </c>
       <c r="Q291" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.1046002806</v>
       </c>
       <c r="R291" t="n">
-        <v>21.860097</v>
+        <v>3.053749</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.145759Z</t>
         </is>
       </c>
       <c r="B292" t="n">
@@ -19133,7 +19133,7 @@
         <v>196.28</v>
       </c>
       <c r="M292" s="2" t="n">
-        <v>45410.72309825636</v>
+        <v>45413.10456261549</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
@@ -19147,16 +19147,16 @@
         <v>5315.864999430345</v>
       </c>
       <c r="Q292" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10459659444</v>
       </c>
       <c r="R292" t="n">
-        <v>22.078095</v>
+        <v>2.935781</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.470427Z</t>
         </is>
       </c>
       <c r="B293" t="n">
@@ -19197,7 +19197,7 @@
         <v>343.03</v>
       </c>
       <c r="M293" s="2" t="n">
-        <v>45410.72310083736</v>
+        <v>45413.1045649942</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
@@ -19211,16 +19211,16 @@
         <v>5702.766407464244</v>
       </c>
       <c r="Q293" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460035216</v>
       </c>
       <c r="R293" t="n">
-        <v>21.855097</v>
+        <v>3.054928</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.476315Z</t>
         </is>
       </c>
       <c r="B294" t="n">
@@ -19261,7 +19261,7 @@
         <v>343.03</v>
       </c>
       <c r="M294" s="2" t="n">
-        <v>45410.72310088369</v>
+        <v>45413.10456504078</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
@@ -19275,16 +19275,16 @@
         <v>5702.766407464244</v>
       </c>
       <c r="Q294" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460042031</v>
       </c>
       <c r="R294" t="n">
-        <v>21.851094</v>
+        <v>3.056792</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.482349Z</t>
         </is>
       </c>
       <c r="B295" t="n">
@@ -19325,7 +19325,7 @@
         <v>343.03</v>
       </c>
       <c r="M295" s="2" t="n">
-        <v>45410.72310091845</v>
+        <v>45413.10456508237</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
@@ -19339,16 +19339,16 @@
         <v>5702.766407464244</v>
       </c>
       <c r="Q295" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460049015</v>
       </c>
       <c r="R295" t="n">
-        <v>21.848091</v>
+        <v>3.059232</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.488372Z</t>
         </is>
       </c>
       <c r="B296" t="n">
@@ -19389,7 +19389,7 @@
         <v>343.03</v>
       </c>
       <c r="M296" s="2" t="n">
-        <v>45410.72310095322</v>
+        <v>45413.10456511723</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
@@ -19403,16 +19403,16 @@
         <v>5702.766407464244</v>
       </c>
       <c r="Q296" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460055986</v>
       </c>
       <c r="R296" t="n">
-        <v>21.845087</v>
+        <v>3.062243</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.494566Z</t>
         </is>
       </c>
       <c r="B297" t="n">
@@ -19453,7 +19453,7 @@
         <v>343.03</v>
       </c>
       <c r="M297" s="2" t="n">
-        <v>45410.72310098782</v>
+        <v>45413.10456515179</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
@@ -19467,16 +19467,16 @@
         <v>5702.766407464244</v>
       </c>
       <c r="Q297" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460063155</v>
       </c>
       <c r="R297" t="n">
-        <v>21.842098</v>
+        <v>3.065452</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.500512Z</t>
         </is>
       </c>
       <c r="B298" t="n">
@@ -19517,7 +19517,7 @@
         <v>345.34</v>
       </c>
       <c r="M298" s="2" t="n">
-        <v>45410.72310103414</v>
+        <v>45413.10456518651</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
@@ -19531,16 +19531,16 @@
         <v>5705.046589462134</v>
       </c>
       <c r="Q298" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460070037</v>
       </c>
       <c r="R298" t="n">
-        <v>21.838095</v>
+        <v>3.068398</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.507778Z</t>
         </is>
       </c>
       <c r="B299" t="n">
@@ -19581,7 +19581,7 @@
         <v>351.77</v>
       </c>
       <c r="M299" s="2" t="n">
-        <v>45410.72310106902</v>
+        <v>45413.10456522123</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
@@ -19595,16 +19595,16 @@
         <v>5708.78051185474</v>
       </c>
       <c r="Q299" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460078447</v>
       </c>
       <c r="R299" t="n">
-        <v>21.835082</v>
+        <v>3.072664</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.515267Z</t>
         </is>
       </c>
       <c r="B300" t="n">
@@ -19645,7 +19645,7 @@
         <v>357.25</v>
       </c>
       <c r="M300" s="2" t="n">
-        <v>45410.72310111515</v>
+        <v>45413.10456525595</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
@@ -19659,16 +19659,16 @@
         <v>5714.142384155427</v>
       </c>
       <c r="Q300" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460087115</v>
       </c>
       <c r="R300" t="n">
-        <v>21.831096</v>
+        <v>3.077153</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.521150Z</t>
         </is>
       </c>
       <c r="B301" t="n">
@@ -19709,7 +19709,7 @@
         <v>21.02</v>
       </c>
       <c r="M301" s="2" t="n">
-        <v>45410.72310114991</v>
+        <v>45413.10456528428</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
@@ -19723,16 +19723,16 @@
         <v>5721.608503031289</v>
       </c>
       <c r="Q301" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460093924</v>
       </c>
       <c r="R301" t="n">
-        <v>21.828093</v>
+        <v>3.080588</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.527569Z</t>
         </is>
       </c>
       <c r="B302" t="n">
@@ -19773,7 +19773,7 @@
         <v>51.84</v>
       </c>
       <c r="M302" s="2" t="n">
-        <v>45410.72310119613</v>
+        <v>45413.10456530745</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
@@ -19787,16 +19787,16 @@
         <v>5728.208009494685</v>
       </c>
       <c r="Q302" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460101353</v>
       </c>
       <c r="R302" t="n">
-        <v>21.824099</v>
+        <v>3.085005</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.151353Z</t>
         </is>
       </c>
       <c r="B303" t="n">
@@ -19837,7 +19837,7 @@
         <v>228.43</v>
       </c>
       <c r="M303" s="2" t="n">
-        <v>45410.72309830262</v>
+        <v>45413.10456267351</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
@@ -19851,16 +19851,16 @@
         <v>5311.252297238236</v>
       </c>
       <c r="Q303" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10459665918</v>
       </c>
       <c r="R303" t="n">
-        <v>22.074098</v>
+        <v>2.936362</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.533523Z</t>
         </is>
       </c>
       <c r="B304" t="n">
@@ -19901,7 +19901,7 @@
         <v>67.97</v>
       </c>
       <c r="M304" s="2" t="n">
-        <v>45410.72310126561</v>
+        <v>45413.10456535373</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -19915,16 +19915,16 @@
         <v>5733.214366142335</v>
       </c>
       <c r="Q304" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460108244</v>
       </c>
       <c r="R304" t="n">
-        <v>21.818096</v>
+        <v>3.086961</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.539227Z</t>
         </is>
       </c>
       <c r="B305" t="n">
@@ -19965,7 +19965,7 @@
         <v>69.31999999999999</v>
       </c>
       <c r="M305" s="2" t="n">
-        <v>45410.7231013119</v>
+        <v>45413.10456538849</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
@@ -19979,16 +19979,16 @@
         <v>5737.957216218299</v>
       </c>
       <c r="Q305" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460114846</v>
       </c>
       <c r="R305" t="n">
-        <v>21.814097</v>
+        <v>3.089662</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.545311Z</t>
         </is>
       </c>
       <c r="B306" t="n">
@@ -20029,7 +20029,7 @@
         <v>69.25</v>
       </c>
       <c r="M306" s="2" t="n">
-        <v>45410.72310135828</v>
+        <v>45413.10456542317</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
@@ -20043,16 +20043,16 @@
         <v>5743.400331208607</v>
       </c>
       <c r="Q306" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460121887</v>
       </c>
       <c r="R306" t="n">
-        <v>21.81009</v>
+        <v>3.092749</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.552224Z</t>
         </is>
       </c>
       <c r="B307" t="n">
@@ -20093,7 +20093,7 @@
         <v>69.38</v>
       </c>
       <c r="M307" s="2" t="n">
-        <v>45410.72310139289</v>
+        <v>45413.10456544635</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
@@ -20107,16 +20107,16 @@
         <v>5749.721095670168</v>
       </c>
       <c r="Q307" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460129889</v>
       </c>
       <c r="R307" t="n">
-        <v>21.807099</v>
+        <v>3.097659</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.558631Z</t>
         </is>
       </c>
       <c r="B308" t="n">
@@ -20157,7 +20157,7 @@
         <v>70.59</v>
       </c>
       <c r="M308" s="2" t="n">
-        <v>45410.72310142762</v>
+        <v>45413.10456546953</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
@@ -20171,16 +20171,16 @@
         <v>5756.530280617884</v>
       </c>
       <c r="Q308" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460137304</v>
       </c>
       <c r="R308" t="n">
-        <v>21.804099</v>
+        <v>3.102064</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.565505Z</t>
         </is>
       </c>
       <c r="B309" t="n">
@@ -20221,7 +20221,7 @@
         <v>70.59</v>
       </c>
       <c r="M309" s="2" t="n">
-        <v>45410.72310146266</v>
+        <v>45413.10456550423</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -20235,16 +20235,16 @@
         <v>5763.256969666289</v>
       </c>
       <c r="Q309" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460145261</v>
       </c>
       <c r="R309" t="n">
-        <v>21.801071</v>
+        <v>3.10594</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.572202Z</t>
         </is>
       </c>
       <c r="B310" t="n">
@@ -20285,7 +20285,7 @@
         <v>70.59</v>
       </c>
       <c r="M310" s="2" t="n">
-        <v>45410.72310150867</v>
+        <v>45413.10456552736</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
@@ -20299,16 +20299,16 @@
         <v>5770.052314367275</v>
       </c>
       <c r="Q310" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460153012</v>
       </c>
       <c r="R310" t="n">
-        <v>21.797096</v>
+        <v>3.110638</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.578394Z</t>
         </is>
       </c>
       <c r="B311" t="n">
@@ -20349,7 +20349,7 @@
         <v>68.04000000000001</v>
       </c>
       <c r="M311" s="2" t="n">
-        <v>45410.72310154339</v>
+        <v>45413.10456556208</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
@@ -20363,16 +20363,16 @@
         <v>5776.969342932611</v>
       </c>
       <c r="Q311" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460160178</v>
       </c>
       <c r="R311" t="n">
-        <v>21.794096</v>
+        <v>3.11383</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.584754Z</t>
         </is>
       </c>
       <c r="B312" t="n">
@@ -20413,7 +20413,7 @@
         <v>67.81999999999999</v>
       </c>
       <c r="M312" s="2" t="n">
-        <v>45410.72310157811</v>
+        <v>45413.10456559682</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -20427,16 +20427,16 @@
         <v>5784.503569467556</v>
       </c>
       <c r="Q312" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.1046016754</v>
       </c>
       <c r="R312" t="n">
-        <v>21.791096</v>
+        <v>3.117189</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.591132Z</t>
         </is>
       </c>
       <c r="B313" t="n">
@@ -20477,7 +20477,7 @@
         <v>71.79000000000001</v>
       </c>
       <c r="M313" s="2" t="n">
-        <v>45410.72310162447</v>
+        <v>45413.10456561993</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
@@ -20491,16 +20491,16 @@
         <v>5792.627428569978</v>
       </c>
       <c r="Q313" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460174921</v>
       </c>
       <c r="R313" t="n">
-        <v>21.787091</v>
+        <v>3.12157</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.156647Z</t>
         </is>
       </c>
       <c r="B314" t="n">
@@ -20541,7 +20541,7 @@
         <v>288.46</v>
       </c>
       <c r="M314" s="2" t="n">
-        <v>45410.72309836051</v>
+        <v>45413.10456270802</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
@@ -20555,16 +20555,16 @@
         <v>5312.460156079342</v>
       </c>
       <c r="Q314" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10459672045</v>
       </c>
       <c r="R314" t="n">
-        <v>22.069097</v>
+        <v>2.938674</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.597423Z</t>
         </is>
       </c>
       <c r="B315" t="n">
@@ -20605,7 +20605,7 @@
         <v>71.79000000000001</v>
       </c>
       <c r="M315" s="2" t="n">
-        <v>45410.72310170543</v>
+        <v>45413.1045656778</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
@@ -20619,16 +20619,16 @@
         <v>5797.903394620475</v>
       </c>
       <c r="Q315" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460182202</v>
       </c>
       <c r="R315" t="n">
-        <v>21.780096</v>
+        <v>3.122861</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.604393Z</t>
         </is>
       </c>
       <c r="B316" t="n">
@@ -20669,7 +20669,7 @@
         <v>71.79000000000001</v>
       </c>
       <c r="M316" s="2" t="n">
-        <v>45410.72310174016</v>
+        <v>45413.10456571252</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
@@ -20683,16 +20683,16 @@
         <v>5801.771781930815</v>
       </c>
       <c r="Q316" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.1046019027</v>
       </c>
       <c r="R316" t="n">
-        <v>21.777095</v>
+        <v>3.126831</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.611309Z</t>
         </is>
       </c>
       <c r="B317" t="n">
@@ -20733,7 +20733,7 @@
         <v>71.79000000000001</v>
       </c>
       <c r="M317" s="2" t="n">
-        <v>45410.72310177486</v>
+        <v>45413.10456573567</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
@@ -20747,16 +20747,16 @@
         <v>5804.445379403179</v>
       </c>
       <c r="Q317" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460198274</v>
       </c>
       <c r="R317" t="n">
-        <v>21.774097</v>
+        <v>3.131747</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.618079Z</t>
         </is>
       </c>
       <c r="B318" t="n">
@@ -20797,7 +20797,7 @@
         <v>71.79000000000001</v>
       </c>
       <c r="M318" s="2" t="n">
-        <v>45410.72310180958</v>
+        <v>45413.10456577044</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
@@ -20811,16 +20811,16 @@
         <v>5805.711398135386</v>
       </c>
       <c r="Q318" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.1046020611</v>
       </c>
       <c r="R318" t="n">
-        <v>21.771097</v>
+        <v>3.135513</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.627193Z</t>
         </is>
       </c>
       <c r="B319" t="n">
@@ -20861,7 +20861,7 @@
         <v>71.79000000000001</v>
       </c>
       <c r="M319" s="2" t="n">
-        <v>45410.72310184433</v>
+        <v>45413.10456580513</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
@@ -20875,16 +20875,16 @@
         <v>5805.805033901063</v>
       </c>
       <c r="Q319" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460216658</v>
       </c>
       <c r="R319" t="n">
-        <v>21.768095</v>
+        <v>3.14163</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.633971Z</t>
         </is>
       </c>
       <c r="B320" t="n">
@@ -20925,7 +20925,7 @@
         <v>71.78</v>
       </c>
       <c r="M320" s="2" t="n">
-        <v>45410.72310190215</v>
+        <v>45413.10456583985</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
@@ -20939,16 +20939,16 @@
         <v>5808.847611347459</v>
       </c>
       <c r="Q320" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460224503</v>
       </c>
       <c r="R320" t="n">
-        <v>21.763099</v>
+        <v>3.145408</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.640881Z</t>
         </is>
       </c>
       <c r="B321" t="n">
@@ -20989,7 +20989,7 @@
         <v>71.78</v>
       </c>
       <c r="M321" s="2" t="n">
-        <v>45410.72310194845</v>
+        <v>45413.10456587456</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
@@ -21003,16 +21003,16 @@
         <v>5808.855499200778</v>
       </c>
       <c r="Q321" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460232501</v>
       </c>
       <c r="R321" t="n">
-        <v>21.759099</v>
+        <v>3.149319</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.648438Z</t>
         </is>
       </c>
       <c r="B322" t="n">
@@ -21053,7 +21053,7 @@
         <v>71.78</v>
       </c>
       <c r="M322" s="2" t="n">
-        <v>45410.72310200642</v>
+        <v>45413.10456589772</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
@@ -21067,16 +21067,16 @@
         <v>5808.8571704296</v>
       </c>
       <c r="Q322" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460241247</v>
       </c>
       <c r="R322" t="n">
-        <v>21.75409</v>
+        <v>3.154875</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.655358Z</t>
         </is>
       </c>
       <c r="B323" t="n">
@@ -21117,7 +21117,7 @@
         <v>71.78</v>
       </c>
       <c r="M323" s="2" t="n">
-        <v>45410.72310205264</v>
+        <v>45413.10456593243</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
@@ -21131,16 +21131,16 @@
         <v>5808.857251618238</v>
       </c>
       <c r="Q323" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460249257</v>
       </c>
       <c r="R323" t="n">
-        <v>21.750097</v>
+        <v>3.158796</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.662486Z</t>
         </is>
       </c>
       <c r="B324" t="n">
@@ -21181,7 +21181,7 @@
         <v>71.78</v>
       </c>
       <c r="M324" s="2" t="n">
-        <v>45410.72310209893</v>
+        <v>45413.10456596717</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
@@ -21195,16 +21195,16 @@
         <v>5808.857251618238</v>
       </c>
       <c r="Q324" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460257507</v>
       </c>
       <c r="R324" t="n">
-        <v>21.746097</v>
+        <v>3.162923</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.162112Z</t>
         </is>
       </c>
       <c r="B325" t="n">
@@ -21245,7 +21245,7 @@
         <v>6.99</v>
       </c>
       <c r="M325" s="2" t="n">
-        <v>45410.72309841837</v>
+        <v>45413.10456275436</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
@@ -21259,16 +21259,16 @@
         <v>5317.190745334301</v>
       </c>
       <c r="Q325" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10459678371</v>
       </c>
       <c r="R325" t="n">
-        <v>22.064098</v>
+        <v>2.940135</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.669777Z</t>
         </is>
       </c>
       <c r="B326" t="n">
@@ -21309,7 +21309,7 @@
         <v>71.78</v>
       </c>
       <c r="M326" s="2" t="n">
-        <v>45410.72310214523</v>
+        <v>45413.10456601351</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
@@ -21323,16 +21323,16 @@
         <v>5808.857284317337</v>
       </c>
       <c r="Q326" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460265946</v>
       </c>
       <c r="R326" t="n">
-        <v>21.742097</v>
+        <v>3.16621</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.676875Z</t>
         </is>
       </c>
       <c r="B327" t="n">
@@ -21373,7 +21373,7 @@
         <v>71.78</v>
       </c>
       <c r="M327" s="2" t="n">
-        <v>45410.72310218007</v>
+        <v>45413.10456604818</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
@@ -21387,16 +21387,16 @@
         <v>5811.867875462295</v>
       </c>
       <c r="Q327" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460274161</v>
       </c>
       <c r="R327" t="n">
-        <v>21.739087</v>
+        <v>3.170312</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.683413Z</t>
         </is>
       </c>
       <c r="B328" t="n">
@@ -21437,7 +21437,7 @@
         <v>71.83</v>
       </c>
       <c r="M328" s="2" t="n">
-        <v>45410.72310222629</v>
+        <v>45413.10456607133</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
@@ -21451,16 +21451,16 @@
         <v>5812.641722337289</v>
       </c>
       <c r="Q328" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460281728</v>
       </c>
       <c r="R328" t="n">
-        <v>21.735093</v>
+        <v>3.17485</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.691742Z</t>
         </is>
       </c>
       <c r="B329" t="n">
@@ -21501,7 +21501,7 @@
         <v>71.95</v>
       </c>
       <c r="M329" s="2" t="n">
-        <v>45410.72310227252</v>
+        <v>45413.10456610604</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
@@ -21515,16 +21515,16 @@
         <v>5813.996535901775</v>
       </c>
       <c r="Q329" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460291368</v>
       </c>
       <c r="R329" t="n">
-        <v>21.731099</v>
+        <v>3.18018</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.698889Z</t>
         </is>
       </c>
       <c r="B330" t="n">
@@ -21565,7 +21565,7 @@
         <v>71.95</v>
       </c>
       <c r="M330" s="2" t="n">
-        <v>45410.72310230728</v>
+        <v>45413.10456616999</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
@@ -21579,16 +21579,16 @@
         <v>5816.042925687705</v>
       </c>
       <c r="Q330" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.1046029964</v>
       </c>
       <c r="R330" t="n">
-        <v>21.728096</v>
+        <v>3.181802</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.705682Z</t>
         </is>
       </c>
       <c r="B331" t="n">
@@ -21629,7 +21629,7 @@
         <v>71.95</v>
       </c>
       <c r="M331" s="2" t="n">
-        <v>45410.72310233042</v>
+        <v>45413.10456619864</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
@@ -21643,16 +21643,16 @@
         <v>5818.871507447884</v>
       </c>
       <c r="Q331" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460307502</v>
       </c>
       <c r="R331" t="n">
-        <v>21.726097</v>
+        <v>3.186119</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.713433Z</t>
         </is>
       </c>
       <c r="B332" t="n">
@@ -21693,7 +21693,7 @@
         <v>71.95</v>
       </c>
       <c r="M332" s="2" t="n">
-        <v>45410.72310237688</v>
+        <v>45413.10456624498</v>
       </c>
       <c r="N332" t="inlineStr">
         <is>
@@ -21707,16 +21707,16 @@
         <v>5822.47772504092</v>
       </c>
       <c r="Q332" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460316473</v>
       </c>
       <c r="R332" t="n">
-        <v>21.722082</v>
+        <v>3.189867</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.720244Z</t>
         </is>
       </c>
       <c r="B333" t="n">
@@ -21757,7 +21757,7 @@
         <v>71</v>
       </c>
       <c r="M333" s="2" t="n">
-        <v>45410.72310241147</v>
+        <v>45413.1045662797</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
@@ -21771,16 +21771,16 @@
         <v>5826.681890801709</v>
       </c>
       <c r="Q333" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460324356</v>
       </c>
       <c r="R333" t="n">
-        <v>21.719094</v>
+        <v>3.193678</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.727316Z</t>
         </is>
       </c>
       <c r="B334" t="n">
@@ -21821,7 +21821,7 @@
         <v>69.51000000000001</v>
       </c>
       <c r="M334" s="2" t="n">
-        <v>45410.72310245772</v>
+        <v>45413.10456631439</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
@@ -21835,16 +21835,16 @@
         <v>5832.119107267724</v>
       </c>
       <c r="Q334" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460332542</v>
       </c>
       <c r="R334" t="n">
-        <v>21.715098</v>
+        <v>3.197753</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>2024-04-28T17:21:37.767445Z</t>
+          <t>2024-05-01T02:30:37.734220Z</t>
         </is>
       </c>
       <c r="B335" t="n">
@@ -21885,7 +21885,7 @@
         <v>69.51000000000001</v>
       </c>
       <c r="M335" s="2" t="n">
-        <v>45410.72310248086</v>
+        <v>45413.10456636069</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
@@ -21899,10 +21899,10 @@
         <v>5838.36209308612</v>
       </c>
       <c r="Q335" s="2" t="n">
-        <v>45410.72335378987</v>
+        <v>45413.10460340532</v>
       </c>
       <c r="R335" t="n">
-        <v>21.713099</v>
+        <v>3.200657</v>
       </c>
     </row>
   </sheetData>
